--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4146C5A1-949C-451F-AFD2-D019E54B9A2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DA69C6-8660-45F6-9E61-52D4EBB64997}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{0AA08E62-1CA2-4B0E-8E90-EE424EE34C25}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{F78B3C91-BD89-47CB-B4F2-DABD7708C8B2}">
       <text>
         <r>
           <rPr>
@@ -48,17 +48,55 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>卡牌类型:
-1.普通牌(事件,基本)
-2.拳法牌
-3.剑法牌
+          <t>Murphy Ma:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.普通牌
+2.拳掌牌
+3.刀剑牌
 4.内功牌
 5.暗器牌
-6.状态牌</t>
+6.心法牌
+7.状态牌</t>
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="1" shapeId="0" xr:uid="{273D1F19-59C3-4D8A-A748-BAF3253CE423}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{E5E96FC5-F899-4741-9C7B-79B40C551F3F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Murphy Ma:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.skill表里找，可以升级的
+2.card_detail表里找,会有一些常量参数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="1" shapeId="0" xr:uid="{273D1F19-59C3-4D8A-A748-BAF3253CE423}">
       <text>
         <r>
           <rPr>
@@ -85,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="1" shapeId="0" xr:uid="{B6371787-8C53-4B6E-BDB3-01E28D3912BA}">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{B6371787-8C53-4B6E-BDB3-01E28D3912BA}">
       <text>
         <r>
           <rPr>
@@ -124,12 +162,6 @@
     <t>class</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
     <t>Fight_skillicon_taizuchangquan</t>
   </si>
   <si>
@@ -148,15 +180,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>number[]</t>
+    <t>格挡</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>card_effect</t>
+    <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>格挡</t>
+    <t>level_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>picture</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -507,42 +547,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -550,27 +592,28 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>30001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -581,19 +624,20 @@
       <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1">
-        <v>40001</v>
-      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>30002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -604,19 +648,20 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1">
-        <v>40001</v>
-      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>30003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -627,36 +672,40 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="1">
-        <v>40002</v>
-      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DA69C6-8660-45F6-9E61-52D4EBB64997}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A04B4E-702C-49C4-A1A8-5450C37E04DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>string</t>
   </si>
@@ -162,12 +162,6 @@
     <t>class</t>
   </si>
   <si>
-    <t>Fight_skillicon_taizuchangquan</t>
-  </si>
-  <si>
-    <t>Fight_skillicon_yangjiaqiangfa</t>
-  </si>
-  <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -197,6 +191,18 @@
   </si>
   <si>
     <t>picture</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pingquan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhijian</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gedang</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -550,7 +556,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -562,22 +568,22 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -592,10 +598,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
@@ -604,7 +610,7 @@
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -613,7 +619,7 @@
         <v>30001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -628,7 +634,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -637,7 +643,7 @@
         <v>30002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -652,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -661,7 +667,7 @@
         <v>30003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -673,10 +679,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H5" s="1"/>
     </row>

--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A04B4E-702C-49C4-A1A8-5450C37E04DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,13 +30,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Murphy Ma</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{F78B3C91-BD89-47CB-B4F2-DABD7708C8B2}">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{E5E96FC5-F899-4741-9C7B-79B40C551F3F}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="1" shapeId="0" xr:uid="{273D1F19-59C3-4D8A-A748-BAF3253CE423}">
+    <comment ref="E2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -119,11 +118,17 @@
           </rPr>
           <t xml:space="preserve">
 门派
-1.无门派</t>
+1.无门派
+2.海沙帮
+3.昆仑剑牌
+4.乞丐岭
+5.武当
+6.少林
+7.圣火教</t>
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{B6371787-8C53-4B6E-BDB3-01E28D3912BA}">
+    <comment ref="F2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>string</t>
   </si>
@@ -166,6 +171,41 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>picture</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhijian</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gedang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>波撼洞庭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pingquan</t>
+  </si>
+  <si>
+    <t>pingquan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>平拳</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -175,41 +215,13 @@
   </si>
   <si>
     <t>格挡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>level_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>picture</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pingquan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhijian</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gedang</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -552,21 +564,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
     <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" customWidth="1"/>
+    <col min="8" max="8" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -577,7 +589,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -590,7 +602,7 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -598,10 +610,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
@@ -610,16 +622,16 @@
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>30001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -634,16 +646,16 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>30002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -658,16 +670,16 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>30003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -682,20 +694,34 @@
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>30004</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -704,7 +730,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>

--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>string</t>
   </si>
@@ -187,34 +187,48 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>波撼洞庭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pingquan</t>
+  </si>
+  <si>
+    <t>pingquan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平拳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>残阳剑法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>zhijian</t>
+  </si>
+  <si>
+    <t>zhijian</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫气东来</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>gedang</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>波撼洞庭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pingquan</t>
-  </si>
-  <si>
-    <t>pingquan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>平拳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>直剑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>格挡</t>
+  </si>
+  <si>
+    <t>gedang</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -565,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -631,7 +645,7 @@
         <v>30001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -646,7 +660,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -655,7 +669,7 @@
         <v>30002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -670,7 +684,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -679,7 +693,7 @@
         <v>30003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -691,10 +705,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -703,7 +717,7 @@
         <v>30004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -718,26 +732,164 @@
         <v>2</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="A7" s="1">
+        <v>30005</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="A8" s="1">
+        <v>30006</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>30007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>30008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>30009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>30010</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>30011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>30012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>30013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>30014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>30015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>30016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>30017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>30018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>30019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>30020</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>30021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>30022</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>30023</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>30024</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>30025</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>30026</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>30027</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>30028</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -58,12 +58,12 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1.普通牌
-2.拳掌牌
-3.刀剑牌
-4.内功牌
-5.暗器牌
-6.心法牌
+1.拳掌牌
+2.刀剑牌
+3.内功牌
+4.暗器牌
+5.心法牌
+6.普通牌
 7.状态牌</t>
         </r>
       </text>
@@ -582,7 +582,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -648,7 +648,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -672,7 +672,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -696,7 +696,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -720,7 +720,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -743,7 +743,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -766,7 +766,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>

--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F31059D-23BB-4BCF-8FE5-46A0C6A45E8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,24 +20,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Murphy Ma</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -68,7 +63,36 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{E119188C-CDBE-461B-A256-06D137997A8B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Murphy Ma:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+使用限制
+1.无限制
+2.只能作用于对手
+3.只能作用与队友</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -95,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="1" shapeId="0">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -128,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0">
+    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -150,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>string</t>
   </si>
@@ -229,13 +253,21 @@
   </si>
   <si>
     <t>gedang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_type</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -578,21 +610,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="15.375" customWidth="1"/>
-    <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="8" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -603,20 +635,23 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -627,20 +662,23 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>30001</v>
       </c>
@@ -651,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -659,12 +697,15 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>30002</v>
       </c>
@@ -675,7 +716,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -683,12 +724,15 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>30003</v>
       </c>
@@ -699,7 +743,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -707,12 +751,15 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>30004</v>
       </c>
@@ -723,19 +770,22 @@
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
         <v>2</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>30005</v>
       </c>
@@ -746,19 +796,22 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>30006</v>
       </c>
@@ -769,124 +822,127 @@
         <v>5</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>30007</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>30008</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>30009</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>30010</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>30011</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>30012</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>30013</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>30014</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>30015</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>30016</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>30017</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>30018</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>30019</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>30020</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>30021</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>30022</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>30023</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>30024</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>30025</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>30026</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>30027</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>30028</v>
       </c>

--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F31059D-23BB-4BCF-8FE5-46A0C6A45E8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +24,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Murphy Ma</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{E119188C-CDBE-461B-A256-06D137997A8B}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -92,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="F2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -152,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="G2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -174,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>string</t>
   </si>
@@ -261,13 +260,21 @@
   </si>
   <si>
     <t>use_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>青蛇吐信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭秋风</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -610,21 +617,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
     <col min="8" max="8" width="31" customWidth="1"/>
-    <col min="9" max="9" width="16.21875" customWidth="1"/>
+    <col min="9" max="9" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -651,7 +658,7 @@
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -678,7 +685,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>30001</v>
       </c>
@@ -705,7 +712,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>30002</v>
       </c>
@@ -732,7 +739,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>30003</v>
       </c>
@@ -759,7 +766,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>30004</v>
       </c>
@@ -785,7 +792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>30005</v>
       </c>
@@ -811,7 +818,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>30006</v>
       </c>
@@ -837,112 +844,154 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>30007</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>30008</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>30009</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>30010</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>30011</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>30012</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>30013</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>30014</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>30015</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>30016</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>30017</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>30018</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>30019</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>30020</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>30021</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>30022</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>30023</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>30024</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>30025</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>30026</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>30027</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>30028</v>
       </c>

--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DD10AE-F0F9-4056-A3FB-05FB5798EEE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,13 +25,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Murphy Ma</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -62,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -91,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -118,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -151,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="1" shapeId="0">
+    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -274,7 +275,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -617,21 +618,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="31" customWidth="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -658,7 +659,7 @@
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -685,7 +686,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>30001</v>
       </c>
@@ -712,7 +713,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>30002</v>
       </c>
@@ -739,7 +740,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>30003</v>
       </c>
@@ -766,7 +767,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>30004</v>
       </c>
@@ -792,7 +793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>30005</v>
       </c>
@@ -818,7 +819,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>30006</v>
       </c>
@@ -844,7 +845,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>30007</v>
       </c>
@@ -870,7 +871,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>30008</v>
       </c>
@@ -896,102 +897,102 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>30009</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>30010</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>30011</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>30012</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>30013</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>30014</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>30015</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>30016</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>30017</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>30018</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>30019</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>30020</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>30021</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>30022</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>30023</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>30024</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>30025</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>30026</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>30027</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>30028</v>
       </c>

--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DD10AE-F0F9-4056-A3FB-05FB5798EEE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAB8792-41E0-4ED8-B4F9-9B6201262442}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,7 +148,8 @@
 4.乞丐岭
 5.武当
 6.少林
-7.圣火教</t>
+7.圣火教
+8:无心岛</t>
         </r>
       </text>
     </comment>
@@ -174,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>string</t>
   </si>
@@ -216,9 +217,6 @@
   </si>
   <si>
     <t>pingquan</t>
-  </si>
-  <si>
-    <t>pingquan</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -239,9 +237,6 @@
   </si>
   <si>
     <t>zhijian</t>
-  </si>
-  <si>
-    <t>zhijian</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -250,9 +245,6 @@
   </si>
   <si>
     <t>gedang</t>
-  </si>
-  <si>
-    <t>gedang</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -269,6 +261,38 @@
   </si>
   <si>
     <t>祭秋风</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰袖拂穴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bohandongting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>canyangjianfa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziqidonglai</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qingshetuxin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiqiufeng</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lanxiufuxue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清风拂穴手</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -622,11 +646,12 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="31" customWidth="1"/>
     <col min="9" max="9" width="16.21875" customWidth="1"/>
@@ -643,7 +668,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -670,7 +695,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -691,7 +716,7 @@
         <v>30001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -709,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" s="1"/>
     </row>
@@ -718,7 +743,7 @@
         <v>30002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -736,7 +761,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I4" s="1"/>
     </row>
@@ -745,7 +770,7 @@
         <v>30003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
@@ -763,7 +788,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I5" s="1"/>
     </row>
@@ -790,7 +815,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -798,7 +823,7 @@
         <v>30005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -816,7 +841,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -824,7 +849,7 @@
         <v>30006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
@@ -842,7 +867,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -850,7 +875,7 @@
         <v>30007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -868,7 +893,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -876,7 +901,7 @@
         <v>30008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -894,17 +919,59 @@
         <v>3</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>30009</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>30010</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>8</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">

--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAB8792-41E0-4ED8-B4F9-9B6201262442}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +24,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Murphy Ma</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -92,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="F2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -153,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="G2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -175,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>string</t>
   </si>
@@ -280,26 +279,34 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>jiqiufeng</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lanxiufuxue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清风拂穴手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大浪千叠手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>qingshetuxin</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>jiqiufeng</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lanxiufuxue</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>清风拂穴手</t>
+    <t>藏剑术</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -642,22 +649,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
     <col min="8" max="8" width="31" customWidth="1"/>
-    <col min="9" max="9" width="16.21875" customWidth="1"/>
+    <col min="9" max="9" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -684,7 +691,7 @@
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -711,7 +718,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>30001</v>
       </c>
@@ -738,7 +745,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>30002</v>
       </c>
@@ -765,7 +772,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>30003</v>
       </c>
@@ -792,7 +799,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>30004</v>
       </c>
@@ -818,7 +825,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>30005</v>
       </c>
@@ -844,7 +851,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>30006</v>
       </c>
@@ -870,7 +877,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>30007</v>
       </c>
@@ -893,10 +900,10 @@
         <v>3</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>30008</v>
       </c>
@@ -919,10 +926,10 @@
         <v>3</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>30009</v>
       </c>
@@ -945,15 +952,15 @@
         <v>5</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>30010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -971,95 +978,137 @@
         <v>5</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>30011</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>30012</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>30013</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>30014</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>30015</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>30016</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>30017</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>30018</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>30019</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>30020</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>30021</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>30022</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>30023</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>30024</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>30025</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>30026</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>30027</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>30028</v>
       </c>

--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748E9799-01F7-4849-B580-CA23353E2988}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,13 +25,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Murphy Ma</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -62,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -91,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -118,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -152,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="1" shapeId="0">
+    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -174,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>string</t>
   </si>
@@ -301,12 +302,19 @@
   <si>
     <t>藏剑术</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>醉卧沙场君莫笑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziqidonglai</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -649,22 +657,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="31" customWidth="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -691,7 +699,7 @@
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -718,7 +726,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>30001</v>
       </c>
@@ -745,7 +753,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>30002</v>
       </c>
@@ -772,7 +780,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>30003</v>
       </c>
@@ -799,7 +807,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>30004</v>
       </c>
@@ -825,7 +833,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>30005</v>
       </c>
@@ -851,7 +859,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>30006</v>
       </c>
@@ -877,7 +885,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>30007</v>
       </c>
@@ -903,7 +911,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>30008</v>
       </c>
@@ -929,7 +937,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>30009</v>
       </c>
@@ -955,7 +963,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>30010</v>
       </c>
@@ -981,7 +989,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>30011</v>
       </c>
@@ -1007,7 +1015,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>30012</v>
       </c>
@@ -1033,82 +1041,103 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>30013</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>4</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>30014</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>30015</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>30016</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>30017</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>30018</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>30019</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>30020</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>30021</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>30022</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>30023</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>30024</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>30025</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>30026</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>30027</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>30028</v>
       </c>

--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748E9799-01F7-4849-B580-CA23353E2988}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +24,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Murphy Ma</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -92,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="F2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -153,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="G2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -175,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>string</t>
   </si>
@@ -309,12 +308,24 @@
   </si>
   <si>
     <t>ziqidonglai</t>
+  </si>
+  <si>
+    <t>龙战于野</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜龙勿用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神龙摆尾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -657,22 +668,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
     <col min="8" max="8" width="31" customWidth="1"/>
-    <col min="9" max="9" width="16.21875" customWidth="1"/>
+    <col min="9" max="9" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -699,7 +710,7 @@
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -726,7 +737,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>30001</v>
       </c>
@@ -753,7 +764,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>30002</v>
       </c>
@@ -780,7 +791,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>30003</v>
       </c>
@@ -807,7 +818,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>30004</v>
       </c>
@@ -833,7 +844,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>30005</v>
       </c>
@@ -859,7 +870,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>30006</v>
       </c>
@@ -885,7 +896,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>30007</v>
       </c>
@@ -911,7 +922,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>30008</v>
       </c>
@@ -937,7 +948,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>30009</v>
       </c>
@@ -963,7 +974,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>30010</v>
       </c>
@@ -989,7 +1000,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>30011</v>
       </c>
@@ -1015,7 +1026,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>30012</v>
       </c>
@@ -1041,7 +1052,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>30013</v>
       </c>
@@ -1067,77 +1078,140 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>30014</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>4</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>30015</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>4</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>30016</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>4</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>30017</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>30018</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>30019</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>30020</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>30021</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>30022</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>30023</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>30024</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>30025</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>30026</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>30027</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>30028</v>
       </c>

--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -148,7 +148,8 @@
 5.武当
 6.少林
 7.圣火教
-8:无心岛</t>
+8:无心岛
+9:黑山(毒)</t>
         </r>
       </text>
     </comment>
@@ -174,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>string</t>
   </si>
@@ -319,6 +320,26 @@
   </si>
   <si>
     <t>神龙摆尾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐尸神掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪落昆仑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞沙扬砾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金雁横空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无极剑道</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -672,7 +693,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1160,25 +1181,130 @@
       <c r="A19" s="1">
         <v>30017</v>
       </c>
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>9</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>30018</v>
       </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>30019</v>
       </c>
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>30020</v>
       </c>
+      <c r="B22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>30021</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1">
+        <v>4</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">

--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824D20C2-B366-450D-B268-60BB66672CE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,13 +25,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Murphy Ma</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -62,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -91,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -118,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -153,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="1" shapeId="0">
+    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -175,7 +176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>string</t>
   </si>
@@ -340,13 +341,17 @@
   </si>
   <si>
     <t>无极剑道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回风落雁</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -689,22 +694,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="C24" sqref="C24:H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="31" customWidth="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -731,7 +736,7 @@
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -758,7 +763,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>30001</v>
       </c>
@@ -785,7 +790,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>30002</v>
       </c>
@@ -812,7 +817,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>30003</v>
       </c>
@@ -839,7 +844,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>30004</v>
       </c>
@@ -865,7 +870,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>30005</v>
       </c>
@@ -891,7 +896,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>30006</v>
       </c>
@@ -917,7 +922,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>30007</v>
       </c>
@@ -943,7 +948,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>30008</v>
       </c>
@@ -969,7 +974,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>30009</v>
       </c>
@@ -995,7 +1000,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>30010</v>
       </c>
@@ -1021,7 +1026,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>30011</v>
       </c>
@@ -1047,7 +1052,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>30012</v>
       </c>
@@ -1073,7 +1078,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>30013</v>
       </c>
@@ -1099,7 +1104,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>30014</v>
       </c>
@@ -1125,7 +1130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>30015</v>
       </c>
@@ -1151,7 +1156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>30016</v>
       </c>
@@ -1177,7 +1182,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>30017</v>
       </c>
@@ -1203,7 +1208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>30018</v>
       </c>
@@ -1229,12 +1234,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>30019</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
@@ -1255,12 +1260,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>30020</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
@@ -1281,7 +1286,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>30021</v>
       </c>
@@ -1307,37 +1312,58 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>30022</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>30023</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>30024</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>30025</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>30026</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>30027</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>30028</v>
       </c>

--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824D20C2-B366-450D-B268-60BB66672CE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64672930-B451-4F31-BDB8-F57D832757A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,7 +150,8 @@
 6.少林
 7.圣火教
 8:无心岛
-9:黑山(毒)</t>
+9:黑山(毒)
+10.万山楼</t>
         </r>
       </text>
     </comment>
@@ -176,7 +177,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
   <si>
     <t>string</t>
   </si>
@@ -345,6 +346,26 @@
   </si>
   <si>
     <t>回风落雁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸳鸯瓦冷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>荼火掌法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>枯木逢春</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钟罩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血残气丧</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -695,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:H24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1342,29 +1363,164 @@
       <c r="A25" s="1">
         <v>30023</v>
       </c>
+      <c r="B25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>10</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>30024</v>
       </c>
+      <c r="B26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>7</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>30025</v>
       </c>
+      <c r="B27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>30026</v>
       </c>
+      <c r="B28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>6</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>30027</v>
       </c>
+      <c r="B29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>7</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
+        <v>30028</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30028</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>30028</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>30028</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>30028</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>30028</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>30028</v>
       </c>
     </row>

--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64672930-B451-4F31-BDB8-F57D832757A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +24,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Murphy Ma</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -88,11 +87,12 @@
 使用限制
 1.无限制
 2.只能作用于对手
-3.只能作用与队友</t>
+3.只能作用与队友
+4.不能使用</t>
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="F2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -155,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="G2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -177,7 +177,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
   <si>
     <t>string</t>
   </si>
@@ -254,125 +254,133 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>青蛇吐信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭秋风</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰袖拂穴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bohandongting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>canyangjianfa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziqidonglai</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiqiufeng</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lanxiufuxue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清风拂穴手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大浪千叠手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qingshetuxin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏剑术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>醉卧沙场君莫笑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziqidonglai</t>
+  </si>
+  <si>
+    <t>龙战于野</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜龙勿用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神龙摆尾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐尸神掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪落昆仑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞沙扬砾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金雁横空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无极剑道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回风落雁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸳鸯瓦冷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>荼火掌法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>枯木逢春</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钟罩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血残气丧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>use_type</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>青蛇吐信</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>祭秋风</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>兰袖拂穴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bohandongting</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>canyangjianfa</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziqidonglai</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiqiufeng</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lanxiufuxue</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>清风拂穴手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大浪千叠手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>qingshetuxin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>藏剑术</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>醉卧沙场君莫笑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziqidonglai</t>
-  </si>
-  <si>
-    <t>龙战于野</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>潜龙勿用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>神龙摆尾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>腐尸神掌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪落昆仑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞沙扬砾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金雁横空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无极剑道</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>回风落雁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸳鸯瓦冷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>荼火掌法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>枯木逢春</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金钟罩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>血残气丧</t>
+    <t>内伤</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -715,22 +723,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
     <col min="8" max="8" width="31" customWidth="1"/>
-    <col min="9" max="9" width="16.21875" customWidth="1"/>
+    <col min="9" max="9" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -757,7 +765,7 @@
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -768,7 +776,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -784,7 +792,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>30001</v>
       </c>
@@ -811,7 +819,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>30002</v>
       </c>
@@ -838,7 +846,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>30003</v>
       </c>
@@ -865,7 +873,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>30004</v>
       </c>
@@ -888,10 +896,10 @@
         <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>30005</v>
       </c>
@@ -914,10 +922,10 @@
         <v>2</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>30006</v>
       </c>
@@ -940,15 +948,15 @@
         <v>2</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>30007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -966,15 +974,15 @@
         <v>3</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>30008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -992,15 +1000,15 @@
         <v>3</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>30009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -1018,15 +1026,15 @@
         <v>5</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>30010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -1044,41 +1052,41 @@
         <v>5</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>30011</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2</v>
-      </c>
-      <c r="G13" s="1">
-        <v>3</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>30012</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
@@ -1099,12 +1107,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>30013</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1">
         <v>3</v>
@@ -1122,15 +1130,15 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>30014</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -1151,12 +1159,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>30015</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1">
         <v>5</v>
@@ -1177,12 +1185,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>30016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -1203,12 +1211,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>30017</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -1229,12 +1237,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>30018</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
@@ -1255,12 +1263,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>30019</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
@@ -1281,12 +1289,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>30020</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
@@ -1307,12 +1315,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>30021</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
@@ -1333,12 +1341,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>30022</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
@@ -1359,12 +1367,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>30023</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -1385,12 +1393,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>30024</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -1411,12 +1419,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>30025</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="1">
         <v>3</v>
@@ -1434,15 +1442,15 @@
         <v>2</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>30026</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="1">
         <v>3</v>
@@ -1460,15 +1468,15 @@
         <v>1</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>30027</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="1">
         <v>3</v>
@@ -1486,42 +1494,124 @@
         <v>1</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>30028</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="1">
+        <v>7</v>
+      </c>
+      <c r="D30" s="1">
+        <v>4</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>30028</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30029</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="1">
+        <v>7</v>
+      </c>
+      <c r="D31" s="1">
+        <v>4</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>30028</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>30030</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>30028</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+        <v>30031</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>30028</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+        <v>30032</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>30028</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+        <v>30033</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>30028</v>
+        <v>30034</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>30035</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>30036</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>30037</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>30038</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>30039</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>30040</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>30041</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>30042</v>
       </c>
     </row>
   </sheetData>

--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -727,7 +727,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -151,7 +151,11 @@
 7.圣火教
 8:无心岛
 9:黑山(毒)
-10.万山楼</t>
+10.万山楼
+11.听雪楼
+12.断月崖
+13.百花谷
+14.百鬼窟</t>
         </r>
       </text>
     </comment>
@@ -177,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
   <si>
     <t>string</t>
   </si>
@@ -374,6 +378,10 @@
   </si>
   <si>
     <t>内伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大金刚掌</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -727,7 +735,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1553,6 +1561,27 @@
       <c r="A32" s="1">
         <v>30030</v>
       </c>
+      <c r="B32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>6</v>
+      </c>
+      <c r="G32" s="1">
+        <v>3</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">

--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
   <si>
     <t>string</t>
   </si>
@@ -382,6 +382,10 @@
   </si>
   <si>
     <t>大金刚掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>醉拳</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -735,7 +739,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1583,62 +1587,83 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30031</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>8</v>
+      </c>
+      <c r="G33" s="1">
+        <v>3</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>30032</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>30033</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>30034</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>30035</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>30036</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>30037</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>30038</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>30039</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>30040</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>30041</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>30042</v>
       </c>

--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
   <si>
     <t>string</t>
   </si>
@@ -386,6 +386,10 @@
   </si>
   <si>
     <t>醉拳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔山打牛</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -739,7 +743,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1617,6 +1621,27 @@
       <c r="A34" s="1">
         <v>30032</v>
       </c>
+      <c r="B34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">

--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -743,7 +743,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF15D8FF-5E4F-42D3-A012-73387C3F3985}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,13 +25,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Murphy Ma</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -62,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -92,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -119,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -159,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="1" shapeId="0">
+    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -396,7 +397,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -739,22 +740,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="31" customWidth="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -781,7 +782,7 @@
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -808,7 +809,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>30001</v>
       </c>
@@ -835,7 +836,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>30002</v>
       </c>
@@ -862,7 +863,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>30003</v>
       </c>
@@ -889,7 +890,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>30004</v>
       </c>
@@ -915,7 +916,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>30005</v>
       </c>
@@ -941,7 +942,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>30006</v>
       </c>
@@ -967,7 +968,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>30007</v>
       </c>
@@ -993,7 +994,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>30008</v>
       </c>
@@ -1019,7 +1020,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>30009</v>
       </c>
@@ -1045,7 +1046,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>30010</v>
       </c>
@@ -1071,7 +1072,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>30011</v>
       </c>
@@ -1097,7 +1098,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>30012</v>
       </c>
@@ -1123,7 +1124,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>30013</v>
       </c>
@@ -1149,7 +1150,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>30014</v>
       </c>
@@ -1175,7 +1176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>30015</v>
       </c>
@@ -1201,7 +1202,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>30016</v>
       </c>
@@ -1227,7 +1228,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>30017</v>
       </c>
@@ -1253,7 +1254,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>30018</v>
       </c>
@@ -1279,7 +1280,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>30019</v>
       </c>
@@ -1305,7 +1306,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>30020</v>
       </c>
@@ -1331,7 +1332,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>30021</v>
       </c>
@@ -1357,7 +1358,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>30022</v>
       </c>
@@ -1383,7 +1384,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>30023</v>
       </c>
@@ -1409,7 +1410,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>30024</v>
       </c>
@@ -1435,7 +1436,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>30025</v>
       </c>
@@ -1461,7 +1462,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>30026</v>
       </c>
@@ -1487,7 +1488,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>30027</v>
       </c>
@@ -1513,7 +1514,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>30028</v>
       </c>
@@ -1539,7 +1540,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30029</v>
       </c>
@@ -1565,7 +1566,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30030</v>
       </c>
@@ -1591,7 +1592,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30031</v>
       </c>
@@ -1617,7 +1618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>30032</v>
       </c>
@@ -1643,52 +1644,52 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>30033</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>30034</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>30035</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>30036</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>30037</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>30038</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>30039</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>30040</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>30041</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>30042</v>
       </c>

--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF15D8FF-5E4F-42D3-A012-73387C3F3985}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4E9B08-EE26-4BF3-ACCF-447152AEEA1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
   <si>
     <t>string</t>
   </si>
@@ -391,6 +391,18 @@
   </si>
   <si>
     <t>隔山打牛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhongshang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>neishang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>geshandaniu</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -743,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1537,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1563,7 +1575,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1641,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">

--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4E9B08-EE26-4BF3-ACCF-447152AEEA1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +24,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Murphy Ma</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="F2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -156,11 +155,12 @@
 11.听雪楼
 12.断月崖
 13.百花谷
-14.百鬼窟</t>
+14.百鬼窟
+15:蜀山剑宗</t>
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="G2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
   <si>
     <t>string</t>
   </si>
@@ -403,13 +403,24 @@
   </si>
   <si>
     <t>geshandaniu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhijian</t>
+  </si>
+  <si>
+    <t>zhijian</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -752,22 +763,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
     <col min="8" max="8" width="31" customWidth="1"/>
-    <col min="9" max="9" width="16.21875" customWidth="1"/>
+    <col min="9" max="9" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -794,7 +805,7 @@
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -821,7 +832,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>30001</v>
       </c>
@@ -848,7 +859,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>30002</v>
       </c>
@@ -871,11 +882,11 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>30003</v>
       </c>
@@ -902,7 +913,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>30004</v>
       </c>
@@ -928,7 +939,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>30005</v>
       </c>
@@ -954,7 +965,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>30006</v>
       </c>
@@ -980,7 +991,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>30007</v>
       </c>
@@ -1006,7 +1017,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>30008</v>
       </c>
@@ -1032,7 +1043,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>30009</v>
       </c>
@@ -1058,7 +1069,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>30010</v>
       </c>
@@ -1084,7 +1095,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>30011</v>
       </c>
@@ -1110,7 +1121,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>30012</v>
       </c>
@@ -1136,7 +1147,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>30013</v>
       </c>
@@ -1162,7 +1173,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>30014</v>
       </c>
@@ -1188,7 +1199,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>30015</v>
       </c>
@@ -1214,7 +1225,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>30016</v>
       </c>
@@ -1240,7 +1251,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>30017</v>
       </c>
@@ -1266,7 +1277,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>30018</v>
       </c>
@@ -1292,7 +1303,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>30019</v>
       </c>
@@ -1318,7 +1329,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>30020</v>
       </c>
@@ -1344,7 +1355,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>30021</v>
       </c>
@@ -1370,7 +1381,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>30022</v>
       </c>
@@ -1396,7 +1407,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>30023</v>
       </c>
@@ -1422,7 +1433,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>30024</v>
       </c>
@@ -1448,7 +1459,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>30025</v>
       </c>
@@ -1474,7 +1485,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>30026</v>
       </c>
@@ -1500,7 +1511,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>30027</v>
       </c>
@@ -1526,7 +1537,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>30028</v>
       </c>
@@ -1552,7 +1563,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30029</v>
       </c>
@@ -1578,7 +1589,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30030</v>
       </c>
@@ -1604,7 +1615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30031</v>
       </c>
@@ -1630,7 +1641,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>30032</v>
       </c>
@@ -1656,52 +1667,73 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>30033</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>15</v>
+      </c>
+      <c r="G35" s="1">
+        <v>5</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>30034</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>30035</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>30036</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>30037</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>30038</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>30039</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>30040</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>30041</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>30042</v>
       </c>

--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761EE075-80F1-4EE3-B777-A79215A432FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,13 +25,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Murphy Ma</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -62,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -92,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -119,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -156,11 +157,12 @@
 12.断月崖
 13.百花谷
 14.百鬼窟
-15:蜀山剑宗</t>
+15:蜀山剑宗
+16.无浪剑阁</t>
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="1" shapeId="0">
+    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -182,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
   <si>
     <t>string</t>
   </si>
@@ -414,13 +416,25 @@
   </si>
   <si>
     <t>zhijian</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一月映三江</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快剑</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -763,22 +777,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="31" customWidth="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -805,7 +819,7 @@
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -832,7 +846,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>30001</v>
       </c>
@@ -859,7 +873,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>30002</v>
       </c>
@@ -886,7 +900,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>30003</v>
       </c>
@@ -913,7 +927,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>30004</v>
       </c>
@@ -939,7 +953,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>30005</v>
       </c>
@@ -965,7 +979,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>30006</v>
       </c>
@@ -991,7 +1005,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>30007</v>
       </c>
@@ -1017,7 +1031,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>30008</v>
       </c>
@@ -1043,7 +1057,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>30009</v>
       </c>
@@ -1069,7 +1083,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>30010</v>
       </c>
@@ -1095,7 +1109,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>30011</v>
       </c>
@@ -1121,7 +1135,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>30012</v>
       </c>
@@ -1147,7 +1161,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>30013</v>
       </c>
@@ -1173,7 +1187,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>30014</v>
       </c>
@@ -1199,7 +1213,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>30015</v>
       </c>
@@ -1225,7 +1239,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>30016</v>
       </c>
@@ -1251,7 +1265,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>30017</v>
       </c>
@@ -1277,7 +1291,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>30018</v>
       </c>
@@ -1303,7 +1317,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>30019</v>
       </c>
@@ -1329,7 +1343,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>30020</v>
       </c>
@@ -1355,7 +1369,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>30021</v>
       </c>
@@ -1381,7 +1395,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>30022</v>
       </c>
@@ -1407,7 +1421,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>30023</v>
       </c>
@@ -1433,7 +1447,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>30024</v>
       </c>
@@ -1459,7 +1473,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>30025</v>
       </c>
@@ -1485,7 +1499,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>30026</v>
       </c>
@@ -1511,7 +1525,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>30027</v>
       </c>
@@ -1537,7 +1551,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>30028</v>
       </c>
@@ -1563,7 +1577,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30029</v>
       </c>
@@ -1589,7 +1603,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30030</v>
       </c>
@@ -1615,7 +1629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30031</v>
       </c>
@@ -1641,7 +1655,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>30032</v>
       </c>
@@ -1667,7 +1681,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>30033</v>
       </c>
@@ -1693,47 +1707,110 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>30034</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="1">
+        <v>7</v>
+      </c>
+      <c r="D36" s="1">
+        <v>4</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>30035</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1">
+        <v>3</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>16</v>
+      </c>
+      <c r="G37" s="1">
+        <v>2</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>30036</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>30037</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>30038</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>30039</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>30040</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>30041</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>30042</v>
       </c>

--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761EE075-80F1-4EE3-B777-A79215A432FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +24,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Murphy Ma</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="F2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -162,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="G2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -184,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
   <si>
     <t>string</t>
   </si>
@@ -428,13 +427,21 @@
   </si>
   <si>
     <t>快剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天音乱气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投掷</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -777,22 +784,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
     <col min="8" max="8" width="31" customWidth="1"/>
-    <col min="9" max="9" width="16.21875" customWidth="1"/>
+    <col min="9" max="9" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,7 +826,7 @@
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -846,7 +853,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>30001</v>
       </c>
@@ -873,7 +880,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>30002</v>
       </c>
@@ -900,7 +907,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>30003</v>
       </c>
@@ -927,7 +934,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>30004</v>
       </c>
@@ -953,7 +960,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>30005</v>
       </c>
@@ -979,7 +986,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>30006</v>
       </c>
@@ -1005,7 +1012,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>30007</v>
       </c>
@@ -1031,7 +1038,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>30008</v>
       </c>
@@ -1057,7 +1064,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>30009</v>
       </c>
@@ -1083,7 +1090,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>30010</v>
       </c>
@@ -1109,7 +1116,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>30011</v>
       </c>
@@ -1135,7 +1142,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>30012</v>
       </c>
@@ -1161,7 +1168,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>30013</v>
       </c>
@@ -1187,7 +1194,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>30014</v>
       </c>
@@ -1213,7 +1220,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>30015</v>
       </c>
@@ -1239,7 +1246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>30016</v>
       </c>
@@ -1265,7 +1272,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>30017</v>
       </c>
@@ -1291,7 +1298,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>30018</v>
       </c>
@@ -1317,7 +1324,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>30019</v>
       </c>
@@ -1343,7 +1350,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>30020</v>
       </c>
@@ -1369,7 +1376,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>30021</v>
       </c>
@@ -1395,7 +1402,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>30022</v>
       </c>
@@ -1421,7 +1428,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>30023</v>
       </c>
@@ -1447,7 +1454,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>30024</v>
       </c>
@@ -1473,7 +1480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>30025</v>
       </c>
@@ -1499,7 +1506,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>30026</v>
       </c>
@@ -1525,7 +1532,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>30027</v>
       </c>
@@ -1551,7 +1558,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>30028</v>
       </c>
@@ -1577,7 +1584,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30029</v>
       </c>
@@ -1603,7 +1610,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30030</v>
       </c>
@@ -1629,7 +1636,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30031</v>
       </c>
@@ -1655,7 +1662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>30032</v>
       </c>
@@ -1681,7 +1688,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>30033</v>
       </c>
@@ -1707,7 +1714,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>30034</v>
       </c>
@@ -1733,7 +1740,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>30035</v>
       </c>
@@ -1759,7 +1766,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>30036</v>
       </c>
@@ -1785,32 +1792,74 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>30037</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>8</v>
+      </c>
+      <c r="G39" s="1">
+        <v>3</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>30038</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="1">
+        <v>4</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>30039</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>30040</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>30041</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>30042</v>
       </c>

--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A154084F-7136-4545-88EE-D66A4FAD16B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,13 +25,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Murphy Ma</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -62,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -92,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -119,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -161,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="1" shapeId="0">
+    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -441,7 +442,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -784,22 +785,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="31" customWidth="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -826,7 +827,7 @@
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -853,7 +854,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>30001</v>
       </c>
@@ -880,7 +881,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>30002</v>
       </c>
@@ -907,7 +908,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>30003</v>
       </c>
@@ -934,7 +935,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>30004</v>
       </c>
@@ -960,7 +961,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>30005</v>
       </c>
@@ -986,7 +987,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>30006</v>
       </c>
@@ -1012,7 +1013,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>30007</v>
       </c>
@@ -1038,7 +1039,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>30008</v>
       </c>
@@ -1064,7 +1065,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>30009</v>
       </c>
@@ -1090,7 +1091,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>30010</v>
       </c>
@@ -1116,7 +1117,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>30011</v>
       </c>
@@ -1142,7 +1143,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>30012</v>
       </c>
@@ -1168,7 +1169,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>30013</v>
       </c>
@@ -1194,7 +1195,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>30014</v>
       </c>
@@ -1220,7 +1221,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>30015</v>
       </c>
@@ -1246,7 +1247,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>30016</v>
       </c>
@@ -1272,7 +1273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>30017</v>
       </c>
@@ -1298,7 +1299,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>30018</v>
       </c>
@@ -1324,7 +1325,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>30019</v>
       </c>
@@ -1350,7 +1351,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>30020</v>
       </c>
@@ -1376,7 +1377,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>30021</v>
       </c>
@@ -1402,7 +1403,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>30022</v>
       </c>
@@ -1428,7 +1429,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>30023</v>
       </c>
@@ -1454,7 +1455,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>30024</v>
       </c>
@@ -1480,7 +1481,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>30025</v>
       </c>
@@ -1506,7 +1507,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>30026</v>
       </c>
@@ -1532,7 +1533,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>30027</v>
       </c>
@@ -1558,7 +1559,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>30028</v>
       </c>
@@ -1584,7 +1585,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30029</v>
       </c>
@@ -1610,7 +1611,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30030</v>
       </c>
@@ -1636,7 +1637,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30031</v>
       </c>
@@ -1662,7 +1663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>30032</v>
       </c>
@@ -1688,7 +1689,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>30033</v>
       </c>
@@ -1714,7 +1715,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>30034</v>
       </c>
@@ -1740,7 +1741,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>30035</v>
       </c>
@@ -1766,7 +1767,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>30036</v>
       </c>
@@ -1792,7 +1793,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>30037</v>
       </c>
@@ -1818,7 +1819,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>30038</v>
       </c>
@@ -1844,22 +1845,22 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>30039</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>30040</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>30041</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>30042</v>
       </c>

--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A154084F-7136-4545-88EE-D66A4FAD16B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B296C7A8-269F-4BAF-AE67-CDF13E0AE68E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -184,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
   <si>
     <t>string</t>
   </si>
@@ -436,6 +436,10 @@
   </si>
   <si>
     <t>投掷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓弦劲</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -788,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1849,6 +1853,27 @@
       <c r="A41" s="1">
         <v>30039</v>
       </c>
+      <c r="B41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="1">
+        <v>5</v>
+      </c>
+      <c r="D41" s="1">
+        <v>3</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1">
+        <v>2</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">

--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B296C7A8-269F-4BAF-AE67-CDF13E0AE68E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B115F67-75D5-4672-A66A-049F964206AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -184,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="67">
   <si>
     <t>string</t>
   </si>
@@ -440,6 +440,10 @@
   </si>
   <si>
     <t>弓弦劲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳真炁</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -792,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1879,6 +1883,27 @@
       <c r="A42" s="1">
         <v>30040</v>
       </c>
+      <c r="B42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="1">
+        <v>5</v>
+      </c>
+      <c r="D42" s="1">
+        <v>3</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1">
+        <v>5</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">

--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B115F67-75D5-4672-A66A-049F964206AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +24,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Murphy Ma</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="F2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -162,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="G2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -184,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="72">
   <si>
     <t>string</t>
   </si>
@@ -444,13 +443,33 @@
   </si>
   <si>
     <t>太阳真炁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>六龙回日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲波逆折</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>繁花似锦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>繁华落尽</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -793,22 +812,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="31" customWidth="1"/>
-    <col min="9" max="9" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="8" max="9" width="31" customWidth="1"/>
+    <col min="10" max="10" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -833,9 +852,12 @@
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -860,9 +882,12 @@
       <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>30001</v>
       </c>
@@ -888,8 +913,9 @@
         <v>11</v>
       </c>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>30002</v>
       </c>
@@ -915,8 +941,9 @@
         <v>59</v>
       </c>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>30003</v>
       </c>
@@ -942,8 +969,9 @@
         <v>18</v>
       </c>
       <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>30004</v>
       </c>
@@ -968,8 +996,9 @@
       <c r="H6" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>30005</v>
       </c>
@@ -994,8 +1023,9 @@
       <c r="H7" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>30006</v>
       </c>
@@ -1020,8 +1050,9 @@
       <c r="H8" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>30007</v>
       </c>
@@ -1046,8 +1077,9 @@
       <c r="H9" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>30008</v>
       </c>
@@ -1072,8 +1104,9 @@
       <c r="H10" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>30009</v>
       </c>
@@ -1098,8 +1131,9 @@
       <c r="H11" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>30010</v>
       </c>
@@ -1124,8 +1158,9 @@
       <c r="H12" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>30011</v>
       </c>
@@ -1150,8 +1185,9 @@
       <c r="H13" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>30012</v>
       </c>
@@ -1176,8 +1212,9 @@
       <c r="H14" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>30013</v>
       </c>
@@ -1203,7 +1240,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>30014</v>
       </c>
@@ -1228,8 +1265,9 @@
       <c r="H16" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>30015</v>
       </c>
@@ -1254,8 +1292,9 @@
       <c r="H17" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>30016</v>
       </c>
@@ -1280,8 +1319,9 @@
       <c r="H18" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>30017</v>
       </c>
@@ -1306,8 +1346,9 @@
       <c r="H19" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>30018</v>
       </c>
@@ -1332,8 +1373,9 @@
       <c r="H20" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>30019</v>
       </c>
@@ -1358,8 +1400,9 @@
       <c r="H21" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>30020</v>
       </c>
@@ -1384,8 +1427,9 @@
       <c r="H22" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>30021</v>
       </c>
@@ -1410,8 +1454,9 @@
       <c r="H23" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>30022</v>
       </c>
@@ -1436,8 +1481,9 @@
       <c r="H24" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>30023</v>
       </c>
@@ -1462,8 +1508,9 @@
       <c r="H25" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>30024</v>
       </c>
@@ -1488,8 +1535,9 @@
       <c r="H26" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>30025</v>
       </c>
@@ -1514,8 +1562,9 @@
       <c r="H27" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>30026</v>
       </c>
@@ -1540,8 +1589,9 @@
       <c r="H28" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>30027</v>
       </c>
@@ -1566,8 +1616,9 @@
       <c r="H29" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>30028</v>
       </c>
@@ -1592,8 +1643,9 @@
       <c r="H30" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30029</v>
       </c>
@@ -1618,8 +1670,9 @@
       <c r="H31" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30030</v>
       </c>
@@ -1644,8 +1697,9 @@
       <c r="H32" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30031</v>
       </c>
@@ -1670,8 +1724,9 @@
       <c r="H33" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>30032</v>
       </c>
@@ -1696,8 +1751,9 @@
       <c r="H34" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>30033</v>
       </c>
@@ -1722,8 +1778,9 @@
       <c r="H35" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>30034</v>
       </c>
@@ -1748,8 +1805,9 @@
       <c r="H36" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>30035</v>
       </c>
@@ -1774,8 +1832,9 @@
       <c r="H37" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>30036</v>
       </c>
@@ -1800,8 +1859,9 @@
       <c r="H38" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>30037</v>
       </c>
@@ -1826,8 +1886,9 @@
       <c r="H39" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>30038</v>
       </c>
@@ -1852,8 +1913,9 @@
       <c r="H40" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>30039</v>
       </c>
@@ -1878,8 +1940,9 @@
       <c r="H41" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>30040</v>
       </c>
@@ -1904,15 +1967,69 @@
       <c r="H42" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>30041</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>30042</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>30043</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>30044</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>30045</v>
+      </c>
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>30046</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>30047</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>30048</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>30049</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>30050</v>
       </c>
     </row>
   </sheetData>

--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01265152-128F-49A1-B9C6-5EE0F29D7241}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,13 +25,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Murphy Ma</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -62,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -92,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -119,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -161,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="1" shapeId="0">
+    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -469,7 +470,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -812,22 +813,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
     <col min="8" max="9" width="31" customWidth="1"/>
-    <col min="10" max="10" width="16.25" customWidth="1"/>
+    <col min="10" max="10" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -857,7 +858,7 @@
       </c>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -887,7 +888,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>30001</v>
       </c>
@@ -915,7 +916,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>30002</v>
       </c>
@@ -943,7 +944,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>30003</v>
       </c>
@@ -971,7 +972,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>30004</v>
       </c>
@@ -998,7 +999,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>30005</v>
       </c>
@@ -1025,7 +1026,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>30006</v>
       </c>
@@ -1052,7 +1053,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>30007</v>
       </c>
@@ -1079,7 +1080,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>30008</v>
       </c>
@@ -1106,7 +1107,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>30009</v>
       </c>
@@ -1133,7 +1134,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>30010</v>
       </c>
@@ -1160,7 +1161,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>30011</v>
       </c>
@@ -1187,7 +1188,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>30012</v>
       </c>
@@ -1214,7 +1215,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>30013</v>
       </c>
@@ -1240,7 +1241,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>30014</v>
       </c>
@@ -1267,7 +1268,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>30015</v>
       </c>
@@ -1294,7 +1295,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>30016</v>
       </c>
@@ -1321,7 +1322,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>30017</v>
       </c>
@@ -1348,7 +1349,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>30018</v>
       </c>
@@ -1375,7 +1376,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>30019</v>
       </c>
@@ -1402,7 +1403,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>30020</v>
       </c>
@@ -1429,7 +1430,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>30021</v>
       </c>
@@ -1456,7 +1457,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>30022</v>
       </c>
@@ -1483,7 +1484,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>30023</v>
       </c>
@@ -1510,7 +1511,7 @@
       </c>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>30024</v>
       </c>
@@ -1537,7 +1538,7 @@
       </c>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>30025</v>
       </c>
@@ -1564,7 +1565,7 @@
       </c>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>30026</v>
       </c>
@@ -1591,7 +1592,7 @@
       </c>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>30027</v>
       </c>
@@ -1618,7 +1619,7 @@
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>30028</v>
       </c>
@@ -1645,7 +1646,7 @@
       </c>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30029</v>
       </c>
@@ -1672,7 +1673,7 @@
       </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30030</v>
       </c>
@@ -1699,7 +1700,7 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30031</v>
       </c>
@@ -1726,7 +1727,7 @@
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>30032</v>
       </c>
@@ -1753,7 +1754,7 @@
       </c>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>30033</v>
       </c>
@@ -1780,7 +1781,7 @@
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>30034</v>
       </c>
@@ -1807,7 +1808,7 @@
       </c>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>30035</v>
       </c>
@@ -1834,7 +1835,7 @@
       </c>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>30036</v>
       </c>
@@ -1861,7 +1862,7 @@
       </c>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>30037</v>
       </c>
@@ -1888,7 +1889,7 @@
       </c>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>30038</v>
       </c>
@@ -1915,7 +1916,7 @@
       </c>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>30039</v>
       </c>
@@ -1942,7 +1943,7 @@
       </c>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>30040</v>
       </c>
@@ -1969,7 +1970,7 @@
       </c>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>30041</v>
       </c>
@@ -1977,7 +1978,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>30042</v>
       </c>
@@ -1985,7 +1986,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>30043</v>
       </c>
@@ -1993,7 +1994,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>30044</v>
       </c>
@@ -2001,33 +2002,33 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>30045</v>
       </c>
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>30046</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>30047</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>30048</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>30049</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>30050</v>
       </c>

--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01265152-128F-49A1-B9C6-5EE0F29D7241}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +24,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Murphy Ma</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="F2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -162,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="G2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -184,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
   <si>
     <t>string</t>
   </si>
@@ -451,26 +450,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>六龙回日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲波逆折</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>繁花似锦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>繁华落尽</t>
+    <t>花拳绣腿</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -813,22 +800,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
     <col min="8" max="9" width="31" customWidth="1"/>
-    <col min="10" max="10" width="16.21875" customWidth="1"/>
+    <col min="10" max="10" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,7 +845,7 @@
       </c>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -888,7 +875,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>30001</v>
       </c>
@@ -916,7 +903,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>30002</v>
       </c>
@@ -944,7 +931,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>30003</v>
       </c>
@@ -972,7 +959,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>30004</v>
       </c>
@@ -999,7 +986,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>30005</v>
       </c>
@@ -1026,7 +1013,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>30006</v>
       </c>
@@ -1053,7 +1040,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>30007</v>
       </c>
@@ -1080,7 +1067,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>30008</v>
       </c>
@@ -1107,7 +1094,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>30009</v>
       </c>
@@ -1134,7 +1121,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>30010</v>
       </c>
@@ -1161,7 +1148,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>30011</v>
       </c>
@@ -1188,7 +1175,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>30012</v>
       </c>
@@ -1215,7 +1202,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>30013</v>
       </c>
@@ -1241,7 +1228,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>30014</v>
       </c>
@@ -1268,7 +1255,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>30015</v>
       </c>
@@ -1295,7 +1282,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>30016</v>
       </c>
@@ -1322,7 +1309,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>30017</v>
       </c>
@@ -1349,7 +1336,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>30018</v>
       </c>
@@ -1376,7 +1363,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>30019</v>
       </c>
@@ -1403,7 +1390,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>30020</v>
       </c>
@@ -1430,7 +1417,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>30021</v>
       </c>
@@ -1457,7 +1444,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>30022</v>
       </c>
@@ -1484,7 +1471,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>30023</v>
       </c>
@@ -1511,7 +1498,7 @@
       </c>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>30024</v>
       </c>
@@ -1538,7 +1525,7 @@
       </c>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>30025</v>
       </c>
@@ -1565,7 +1552,7 @@
       </c>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>30026</v>
       </c>
@@ -1592,7 +1579,7 @@
       </c>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>30027</v>
       </c>
@@ -1619,7 +1606,7 @@
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>30028</v>
       </c>
@@ -1646,7 +1633,7 @@
       </c>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30029</v>
       </c>
@@ -1673,7 +1660,7 @@
       </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30030</v>
       </c>
@@ -1700,7 +1687,7 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30031</v>
       </c>
@@ -1727,7 +1714,7 @@
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>30032</v>
       </c>
@@ -1754,7 +1741,7 @@
       </c>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>30033</v>
       </c>
@@ -1781,7 +1768,7 @@
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>30034</v>
       </c>
@@ -1808,7 +1795,7 @@
       </c>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>30035</v>
       </c>
@@ -1835,7 +1822,7 @@
       </c>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>30036</v>
       </c>
@@ -1862,7 +1849,7 @@
       </c>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>30037</v>
       </c>
@@ -1889,7 +1876,7 @@
       </c>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>30038</v>
       </c>
@@ -1916,7 +1903,7 @@
       </c>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>30039</v>
       </c>
@@ -1943,7 +1930,7 @@
       </c>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>30040</v>
       </c>
@@ -1970,65 +1957,77 @@
       </c>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>30041</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>30042</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>30043</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>30044</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>30045</v>
       </c>
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>30046</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>30047</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>30048</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>30049</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>30050</v>
       </c>

--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -803,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1114,7 +1114,7 @@
         <v>8</v>
       </c>
       <c r="G11" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>27</v>
@@ -1141,7 +1141,7 @@
         <v>8</v>
       </c>
       <c r="G12" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>27</v>

--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -804,7 +804,7 @@
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E99D991-CA3B-420B-999A-EF4622958CFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,13 +25,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Murphy Ma</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -62,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -92,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -119,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -161,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="1" shapeId="0">
+    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -457,7 +458,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -800,22 +801,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
     <col min="8" max="9" width="31" customWidth="1"/>
-    <col min="10" max="10" width="16.25" customWidth="1"/>
+    <col min="10" max="10" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -845,7 +846,7 @@
       </c>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -875,7 +876,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>30001</v>
       </c>
@@ -903,7 +904,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>30002</v>
       </c>
@@ -931,7 +932,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>30003</v>
       </c>
@@ -959,7 +960,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>30004</v>
       </c>
@@ -986,7 +987,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>30005</v>
       </c>
@@ -1013,7 +1014,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>30006</v>
       </c>
@@ -1040,7 +1041,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>30007</v>
       </c>
@@ -1067,7 +1068,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>30008</v>
       </c>
@@ -1094,7 +1095,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>30009</v>
       </c>
@@ -1121,7 +1122,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>30010</v>
       </c>
@@ -1148,7 +1149,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>30011</v>
       </c>
@@ -1175,7 +1176,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>30012</v>
       </c>
@@ -1202,7 +1203,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>30013</v>
       </c>
@@ -1228,7 +1229,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>30014</v>
       </c>
@@ -1255,7 +1256,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>30015</v>
       </c>
@@ -1282,7 +1283,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>30016</v>
       </c>
@@ -1309,7 +1310,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>30017</v>
       </c>
@@ -1336,7 +1337,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>30018</v>
       </c>
@@ -1363,7 +1364,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>30019</v>
       </c>
@@ -1390,7 +1391,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>30020</v>
       </c>
@@ -1417,7 +1418,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>30021</v>
       </c>
@@ -1444,7 +1445,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>30022</v>
       </c>
@@ -1471,7 +1472,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>30023</v>
       </c>
@@ -1498,7 +1499,7 @@
       </c>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>30024</v>
       </c>
@@ -1525,7 +1526,7 @@
       </c>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>30025</v>
       </c>
@@ -1552,7 +1553,7 @@
       </c>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>30026</v>
       </c>
@@ -1579,7 +1580,7 @@
       </c>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>30027</v>
       </c>
@@ -1606,7 +1607,7 @@
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>30028</v>
       </c>
@@ -1633,7 +1634,7 @@
       </c>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30029</v>
       </c>
@@ -1660,7 +1661,7 @@
       </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30030</v>
       </c>
@@ -1687,7 +1688,7 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30031</v>
       </c>
@@ -1714,7 +1715,7 @@
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>30032</v>
       </c>
@@ -1741,7 +1742,7 @@
       </c>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>30033</v>
       </c>
@@ -1768,7 +1769,7 @@
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>30034</v>
       </c>
@@ -1795,7 +1796,7 @@
       </c>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>30035</v>
       </c>
@@ -1822,7 +1823,7 @@
       </c>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>30036</v>
       </c>
@@ -1849,7 +1850,7 @@
       </c>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>30037</v>
       </c>
@@ -1876,7 +1877,7 @@
       </c>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>30038</v>
       </c>
@@ -1903,7 +1904,7 @@
       </c>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>30039</v>
       </c>
@@ -1930,7 +1931,7 @@
       </c>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>30040</v>
       </c>
@@ -1957,7 +1958,7 @@
       </c>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>30041</v>
       </c>
@@ -1983,51 +1984,51 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>30042</v>
       </c>
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>30043</v>
       </c>
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>30044</v>
       </c>
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>30045</v>
       </c>
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>30046</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>30047</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>30048</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>30049</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>30050</v>
       </c>

--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E99D991-CA3B-420B-999A-EF4622958CFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB420FF-FD3E-46A8-AFC5-3CEA32EFF589}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -249,10 +249,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>紫气东来</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>gedang</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -452,6 +448,10 @@
   </si>
   <si>
     <t>花拳绣腿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>八段锦</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -804,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -827,7 +827,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -857,7 +857,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -872,7 +872,7 @@
         <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J2" s="1"/>
     </row>
@@ -927,7 +927,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -955,7 +955,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -980,10 +980,10 @@
         <v>2</v>
       </c>
       <c r="G6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -1010,7 +1010,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I7" s="1"/>
     </row>
@@ -1019,10 +1019,10 @@
         <v>30006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -1037,7 +1037,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8" s="1"/>
     </row>
@@ -1046,7 +1046,7 @@
         <v>30007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -1064,7 +1064,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I9" s="1"/>
     </row>
@@ -1073,7 +1073,7 @@
         <v>30008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -1091,7 +1091,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="1"/>
     </row>
@@ -1100,7 +1100,7 @@
         <v>30009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -1118,7 +1118,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -1127,7 +1127,7 @@
         <v>30010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -1145,7 +1145,7 @@
         <v>4</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I12" s="1"/>
     </row>
@@ -1154,25 +1154,25 @@
         <v>30011</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2</v>
-      </c>
-      <c r="G13" s="1">
-        <v>3</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="I13" s="1"/>
     </row>
@@ -1181,7 +1181,7 @@
         <v>30012</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
@@ -1208,7 +1208,7 @@
         <v>30013</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1">
         <v>3</v>
@@ -1226,7 +1226,7 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1234,7 +1234,7 @@
         <v>30014</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -1261,7 +1261,7 @@
         <v>30015</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1">
         <v>5</v>
@@ -1288,7 +1288,7 @@
         <v>30016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -1315,7 +1315,7 @@
         <v>30017</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -1342,7 +1342,7 @@
         <v>30018</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
@@ -1369,7 +1369,7 @@
         <v>30019</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
@@ -1396,7 +1396,7 @@
         <v>30020</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
@@ -1423,13 +1423,13 @@
         <v>30021</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -1450,7 +1450,7 @@
         <v>30022</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
@@ -1477,7 +1477,7 @@
         <v>30023</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -1504,7 +1504,7 @@
         <v>30024</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -1531,7 +1531,7 @@
         <v>30025</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="1">
         <v>3</v>
@@ -1549,7 +1549,7 @@
         <v>2</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I27" s="1"/>
     </row>
@@ -1558,7 +1558,7 @@
         <v>30026</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="1">
         <v>3</v>
@@ -1576,7 +1576,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I28" s="1"/>
     </row>
@@ -1585,10 +1585,10 @@
         <v>30027</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C29" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" s="1">
         <v>3</v>
@@ -1603,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I29" s="1"/>
     </row>
@@ -1612,7 +1612,7 @@
         <v>30028</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="1">
         <v>7</v>
@@ -1630,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I30" s="1"/>
     </row>
@@ -1639,7 +1639,7 @@
         <v>30029</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="1">
         <v>7</v>
@@ -1657,7 +1657,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I31" s="1"/>
     </row>
@@ -1666,7 +1666,7 @@
         <v>30030</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -1693,7 +1693,7 @@
         <v>30031</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
@@ -1720,7 +1720,7 @@
         <v>30032</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -1738,7 +1738,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I34" s="1"/>
     </row>
@@ -1747,7 +1747,7 @@
         <v>30033</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" s="1">
         <v>2</v>
@@ -1765,7 +1765,7 @@
         <v>5</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I35" s="1"/>
     </row>
@@ -1774,7 +1774,7 @@
         <v>30034</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C36" s="1">
         <v>7</v>
@@ -1792,7 +1792,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I36" s="1"/>
     </row>
@@ -1801,7 +1801,7 @@
         <v>30035</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C37" s="1">
         <v>2</v>
@@ -1828,7 +1828,7 @@
         <v>30036</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C38" s="1">
         <v>2</v>
@@ -1855,7 +1855,7 @@
         <v>30037</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C39" s="1">
         <v>3</v>
@@ -1873,7 +1873,7 @@
         <v>3</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I39" s="1"/>
     </row>
@@ -1882,7 +1882,7 @@
         <v>30038</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C40" s="1">
         <v>4</v>
@@ -1909,7 +1909,7 @@
         <v>30039</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C41" s="1">
         <v>5</v>
@@ -1936,7 +1936,7 @@
         <v>30040</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C42" s="1">
         <v>5</v>
@@ -1963,7 +1963,7 @@
         <v>30041</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>

--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB420FF-FD3E-46A8-AFC5-3CEA32EFF589}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +24,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Murphy Ma</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="F2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -162,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="G2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -184,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
   <si>
     <t>string</t>
   </si>
@@ -423,10 +422,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>快剑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>天音乱气</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -452,13 +447,21 @@
   </si>
   <si>
     <t>八段锦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试牌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快斩</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -801,22 +804,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
     <col min="8" max="9" width="31" customWidth="1"/>
-    <col min="10" max="10" width="16.21875" customWidth="1"/>
+    <col min="10" max="10" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -846,7 +849,7 @@
       </c>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -872,11 +875,11 @@
         <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>30001</v>
       </c>
@@ -904,7 +907,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>30002</v>
       </c>
@@ -932,7 +935,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>30003</v>
       </c>
@@ -960,7 +963,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>30004</v>
       </c>
@@ -987,7 +990,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>30005</v>
       </c>
@@ -1014,12 +1017,12 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>30006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -1041,7 +1044,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>30007</v>
       </c>
@@ -1068,7 +1071,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>30008</v>
       </c>
@@ -1095,7 +1098,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>30009</v>
       </c>
@@ -1122,7 +1125,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>30010</v>
       </c>
@@ -1149,7 +1152,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>30011</v>
       </c>
@@ -1176,7 +1179,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>30012</v>
       </c>
@@ -1203,7 +1206,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>30013</v>
       </c>
@@ -1229,7 +1232,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>30014</v>
       </c>
@@ -1256,7 +1259,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>30015</v>
       </c>
@@ -1283,7 +1286,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>30016</v>
       </c>
@@ -1310,7 +1313,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>30017</v>
       </c>
@@ -1337,7 +1340,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>30018</v>
       </c>
@@ -1364,7 +1367,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>30019</v>
       </c>
@@ -1391,7 +1394,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>30020</v>
       </c>
@@ -1418,7 +1421,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>30021</v>
       </c>
@@ -1445,7 +1448,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>30022</v>
       </c>
@@ -1472,7 +1475,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>30023</v>
       </c>
@@ -1499,7 +1502,7 @@
       </c>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>30024</v>
       </c>
@@ -1526,7 +1529,7 @@
       </c>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>30025</v>
       </c>
@@ -1553,7 +1556,7 @@
       </c>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>30026</v>
       </c>
@@ -1580,7 +1583,7 @@
       </c>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>30027</v>
       </c>
@@ -1607,7 +1610,7 @@
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>30028</v>
       </c>
@@ -1634,7 +1637,7 @@
       </c>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30029</v>
       </c>
@@ -1661,7 +1664,7 @@
       </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30030</v>
       </c>
@@ -1688,7 +1691,7 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30031</v>
       </c>
@@ -1715,7 +1718,7 @@
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>30032</v>
       </c>
@@ -1742,7 +1745,7 @@
       </c>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>30033</v>
       </c>
@@ -1762,14 +1765,14 @@
         <v>15</v>
       </c>
       <c r="G35" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>30034</v>
       </c>
@@ -1796,7 +1799,7 @@
       </c>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>30035</v>
       </c>
@@ -1823,12 +1826,12 @@
       </c>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>30036</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C38" s="1">
         <v>2</v>
@@ -1850,12 +1853,12 @@
       </c>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>30037</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39" s="1">
         <v>3</v>
@@ -1877,12 +1880,12 @@
       </c>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>30038</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40" s="1">
         <v>4</v>
@@ -1904,12 +1907,12 @@
       </c>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>30039</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41" s="1">
         <v>5</v>
@@ -1931,12 +1934,12 @@
       </c>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>30040</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C42" s="1">
         <v>5</v>
@@ -1958,12 +1961,12 @@
       </c>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>30041</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
@@ -1984,51 +1987,71 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>30042</v>
       </c>
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="1">
+        <v>3</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>2</v>
+      </c>
+      <c r="G44" s="1">
+        <v>2</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>30043</v>
       </c>
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>30044</v>
       </c>
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>30045</v>
       </c>
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>30046</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>30047</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>30048</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>30049</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>30050</v>
       </c>

--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -147,7 +147,7 @@
 3.昆仑剑牌
 4.乞丐岭
 5.武当
-6.少林
+6.禅宗
 7.圣火教
 8:无心岛
 9:黑山(毒)
@@ -183,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="82">
   <si>
     <t>string</t>
   </si>
@@ -455,6 +455,53 @@
   </si>
   <si>
     <t>快斩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞龙在天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙跃于渊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>终日乾乾</t>
+  </si>
+  <si>
+    <t>祁连山诀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阴无悔式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伏龙掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猛虎拳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦幻泡影</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无间轮回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红莲地狱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火贪斩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红莲心法</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -805,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2017,43 +2064,432 @@
       <c r="A45" s="1">
         <v>30043</v>
       </c>
-      <c r="B45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="1">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1">
+        <v>3</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>4</v>
+      </c>
+      <c r="G45" s="1">
+        <v>2</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>30044</v>
       </c>
-      <c r="B46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="1">
+        <v>5</v>
+      </c>
+      <c r="D46" s="1">
+        <v>3</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>4</v>
+      </c>
+      <c r="G46" s="1">
+        <v>3</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>30045</v>
       </c>
-      <c r="B47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="1">
+        <v>5</v>
+      </c>
+      <c r="D47" s="1">
+        <v>3</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1">
+        <v>4</v>
+      </c>
+      <c r="G47" s="1">
+        <v>3</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>30046</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="1">
+        <v>5</v>
+      </c>
+      <c r="D48" s="1">
+        <v>3</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1">
+        <v>4</v>
+      </c>
+      <c r="G48" s="1">
+        <v>3</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>30047</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>4</v>
+      </c>
+      <c r="G49" s="1">
+        <v>3</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>30048</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>30049</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
+        <v>2</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>30050</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="1">
+        <v>3</v>
+      </c>
+      <c r="D52" s="1">
+        <v>3</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1">
+        <v>6</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>30051</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="1">
+        <v>3</v>
+      </c>
+      <c r="D53" s="1">
+        <v>3</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <v>6</v>
+      </c>
+      <c r="G53" s="1">
+        <v>2</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>30052</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" s="1">
+        <v>3</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>6</v>
+      </c>
+      <c r="G54" s="1">
+        <v>3</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>30053</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2</v>
+      </c>
+      <c r="D55" s="1">
+        <v>2</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1">
+        <v>6</v>
+      </c>
+      <c r="G55" s="1">
+        <v>2</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>30054</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="1">
+        <v>5</v>
+      </c>
+      <c r="D56" s="1">
+        <v>3</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1">
+        <v>6</v>
+      </c>
+      <c r="G56" s="1">
+        <v>3</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>30055</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>30056</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>30057</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>30058</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>30059</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>30060</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>30061</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>30062</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>30063</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>30064</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>30065</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>30066</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>30067</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>30068</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>30069</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>30070</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>30071</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>30072</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>30073</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>30074</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>30075</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>30076</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>30077</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>30078</v>
       </c>
     </row>
   </sheetData>

--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -183,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="101">
   <si>
     <t>string</t>
   </si>
@@ -339,10 +339,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>无极剑道</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>回风落雁</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -502,6 +498,86 @@
   </si>
   <si>
     <t>红莲心法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵罡不灭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌波渡雪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁布衫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以血行气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>般若心法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龟息功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>须弥山神掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>渊渟岳峙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大哉昆仑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十字手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抱虎归山</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和光同尘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无招</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>荡剑诀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>落剑诀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>惊鸿照影</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫气东来</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑·十三式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苍松迎客</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以气行血</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -854,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -907,7 +983,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -922,7 +998,7 @@
         <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J2" s="1"/>
     </row>
@@ -977,7 +1053,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1069,7 +1145,7 @@
         <v>30006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -1473,10 +1549,10 @@
         <v>30021</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C23" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" s="1">
         <v>3</v>
@@ -1500,7 +1576,7 @@
         <v>30022</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
@@ -1527,7 +1603,7 @@
         <v>30023</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -1554,7 +1630,7 @@
         <v>30024</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -1581,7 +1657,7 @@
         <v>30025</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="1">
         <v>3</v>
@@ -1608,7 +1684,7 @@
         <v>30026</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="1">
         <v>3</v>
@@ -1635,7 +1711,7 @@
         <v>30027</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="1">
         <v>5</v>
@@ -1662,7 +1738,7 @@
         <v>30028</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="1">
         <v>7</v>
@@ -1680,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I30" s="1"/>
     </row>
@@ -1689,7 +1765,7 @@
         <v>30029</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="1">
         <v>7</v>
@@ -1707,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I31" s="1"/>
     </row>
@@ -1716,7 +1792,7 @@
         <v>30030</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -1743,7 +1819,7 @@
         <v>30031</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
@@ -1770,7 +1846,7 @@
         <v>30032</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -1788,7 +1864,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I34" s="1"/>
     </row>
@@ -1797,7 +1873,7 @@
         <v>30033</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="1">
         <v>2</v>
@@ -1815,7 +1891,7 @@
         <v>4</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I35" s="1"/>
     </row>
@@ -1824,7 +1900,7 @@
         <v>30034</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C36" s="1">
         <v>7</v>
@@ -1842,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I36" s="1"/>
     </row>
@@ -1851,7 +1927,7 @@
         <v>30035</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" s="1">
         <v>2</v>
@@ -1878,7 +1954,7 @@
         <v>30036</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C38" s="1">
         <v>2</v>
@@ -1905,7 +1981,7 @@
         <v>30037</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39" s="1">
         <v>3</v>
@@ -1932,7 +2008,7 @@
         <v>30038</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40" s="1">
         <v>4</v>
@@ -1959,7 +2035,7 @@
         <v>30039</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C41" s="1">
         <v>5</v>
@@ -1986,7 +2062,7 @@
         <v>30040</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C42" s="1">
         <v>5</v>
@@ -2013,7 +2089,7 @@
         <v>30041</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
@@ -2039,7 +2115,7 @@
         <v>30042</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C44" s="1">
         <v>3</v>
@@ -2065,7 +2141,7 @@
         <v>30043</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C45" s="1">
         <v>3</v>
@@ -2091,7 +2167,7 @@
         <v>30044</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C46" s="1">
         <v>5</v>
@@ -2117,7 +2193,7 @@
         <v>30045</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C47" s="1">
         <v>5</v>
@@ -2143,7 +2219,7 @@
         <v>30046</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C48" s="1">
         <v>5</v>
@@ -2169,7 +2245,7 @@
         <v>30047</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
@@ -2195,7 +2271,7 @@
         <v>30048</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
@@ -2221,7 +2297,7 @@
         <v>30049</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
@@ -2247,7 +2323,7 @@
         <v>30050</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C52" s="1">
         <v>3</v>
@@ -2273,7 +2349,7 @@
         <v>30051</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C53" s="1">
         <v>3</v>
@@ -2299,7 +2375,7 @@
         <v>30052</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C54" s="1">
         <v>3</v>
@@ -2325,7 +2401,7 @@
         <v>30053</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C55" s="1">
         <v>2</v>
@@ -2351,7 +2427,7 @@
         <v>30054</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C56" s="1">
         <v>5</v>
@@ -2376,118 +2452,517 @@
       <c r="A57" s="1">
         <v>30055</v>
       </c>
+      <c r="B57" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="1">
+        <v>5</v>
+      </c>
+      <c r="D57" s="1">
+        <v>3</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1</v>
+      </c>
+      <c r="G57" s="1">
+        <v>4</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>30056</v>
       </c>
+      <c r="B58" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2</v>
+      </c>
+      <c r="D58" s="1">
+        <v>2</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1">
+        <v>2</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>30057</v>
       </c>
+      <c r="B59" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="1">
+        <v>3</v>
+      </c>
+      <c r="D59" s="1">
+        <v>3</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>30058</v>
       </c>
+      <c r="B60" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="1">
+        <v>3</v>
+      </c>
+      <c r="D60" s="1">
+        <v>3</v>
+      </c>
+      <c r="E60" s="1">
+        <v>1</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>30059</v>
       </c>
+      <c r="B61" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" s="1">
+        <v>5</v>
+      </c>
+      <c r="D61" s="1">
+        <v>3</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1</v>
+      </c>
+      <c r="F61" s="1">
+        <v>6</v>
+      </c>
+      <c r="G61" s="1">
+        <v>2</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>30060</v>
       </c>
+      <c r="B62" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" s="1">
+        <v>5</v>
+      </c>
+      <c r="D62" s="1">
+        <v>3</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1</v>
+      </c>
+      <c r="G62" s="1">
+        <v>2</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>30061</v>
       </c>
+      <c r="B63" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
+        <v>2</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1">
+        <v>6</v>
+      </c>
+      <c r="G63" s="1">
+        <v>3</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>30062</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1">
+        <v>2</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1</v>
+      </c>
+      <c r="G64" s="1">
+        <v>2</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>30063</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" s="1">
+        <v>5</v>
+      </c>
+      <c r="D65" s="1">
+        <v>3</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1</v>
+      </c>
+      <c r="G65" s="1">
+        <v>2</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>30064</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1">
+        <v>2</v>
+      </c>
+      <c r="E66" s="1">
+        <v>1</v>
+      </c>
+      <c r="F66" s="1">
+        <v>5</v>
+      </c>
+      <c r="G66" s="1">
+        <v>2</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>30065</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1">
+        <v>3</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1</v>
+      </c>
+      <c r="F67" s="1">
+        <v>5</v>
+      </c>
+      <c r="G67" s="1">
+        <v>2</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>30066</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C68" s="1">
+        <v>2</v>
+      </c>
+      <c r="D68" s="1">
+        <v>3</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1</v>
+      </c>
+      <c r="G68" s="1">
+        <v>2</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>30067</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69" s="1">
+        <v>2</v>
+      </c>
+      <c r="D69" s="1">
+        <v>2</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
+      <c r="F69" s="1">
+        <v>1</v>
+      </c>
+      <c r="G69" s="1">
+        <v>2</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>30068</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70" s="1">
+        <v>2</v>
+      </c>
+      <c r="D70" s="1">
+        <v>2</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1">
+        <v>1</v>
+      </c>
+      <c r="G70" s="1">
+        <v>2</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>30069</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71" s="1">
+        <v>2</v>
+      </c>
+      <c r="D71" s="1">
+        <v>3</v>
+      </c>
+      <c r="E71" s="1">
+        <v>1</v>
+      </c>
+      <c r="F71" s="1">
+        <v>1</v>
+      </c>
+      <c r="G71" s="1">
+        <v>2</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>30070</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72" s="1">
+        <v>3</v>
+      </c>
+      <c r="D72" s="1">
+        <v>3</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1</v>
+      </c>
+      <c r="G72" s="1">
+        <v>2</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>30071</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73" s="1">
+        <v>2</v>
+      </c>
+      <c r="D73" s="1">
+        <v>2</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1">
+        <v>1</v>
+      </c>
+      <c r="G73" s="1">
+        <v>3</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>30072</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74" s="1">
+        <v>2</v>
+      </c>
+      <c r="D74" s="1">
+        <v>3</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1</v>
+      </c>
+      <c r="G74" s="1">
+        <v>1</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>30073</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75" s="1">
+        <v>3</v>
+      </c>
+      <c r="D75" s="1">
+        <v>3</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1</v>
+      </c>
+      <c r="G75" s="1">
+        <v>2</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>30074</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>30075</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>30076</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>30077</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>30078</v>
       </c>

--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -183,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="111">
   <si>
     <t>string</t>
   </si>
@@ -578,6 +578,46 @@
   </si>
   <si>
     <t>以气行血</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑在意先</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪夜飞花</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>繁花似锦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>繁花落尽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>万毒心法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火贪心法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>落红无情斩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>两仪心法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑山掌法</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -928,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J80"/>
+  <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I70" sqref="I70"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2118,7 +2158,7 @@
         <v>67</v>
       </c>
       <c r="C44" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" s="1">
         <v>3</v>
@@ -2946,25 +2986,360 @@
       <c r="A76" s="1">
         <v>30074</v>
       </c>
+      <c r="B76" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76" s="1">
+        <v>5</v>
+      </c>
+      <c r="D76" s="1">
+        <v>3</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1</v>
+      </c>
+      <c r="G76" s="1">
+        <v>2</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="77" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>30075</v>
       </c>
+      <c r="B77" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77" s="1">
+        <v>2</v>
+      </c>
+      <c r="D77" s="1">
+        <v>2</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1">
+        <v>1</v>
+      </c>
+      <c r="G77" s="1">
+        <v>2</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="78" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>30076</v>
       </c>
+      <c r="B78" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78" s="1">
+        <v>2</v>
+      </c>
+      <c r="D78" s="1">
+        <v>2</v>
+      </c>
+      <c r="E78" s="1">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1">
+        <v>1</v>
+      </c>
+      <c r="G78" s="1">
+        <v>3</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="79" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>30077</v>
       </c>
+      <c r="B79" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79" s="1">
+        <v>2</v>
+      </c>
+      <c r="D79" s="1">
+        <v>2</v>
+      </c>
+      <c r="E79" s="1">
+        <v>1</v>
+      </c>
+      <c r="F79" s="1">
+        <v>1</v>
+      </c>
+      <c r="G79" s="1">
+        <v>3</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="80" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>30078</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80" s="1">
+        <v>2</v>
+      </c>
+      <c r="D80" s="1">
+        <v>2</v>
+      </c>
+      <c r="E80" s="1">
+        <v>1</v>
+      </c>
+      <c r="F80" s="1">
+        <v>1</v>
+      </c>
+      <c r="G80" s="1">
+        <v>1</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>30079</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C81" s="1">
+        <v>2</v>
+      </c>
+      <c r="D81" s="1">
+        <v>3</v>
+      </c>
+      <c r="E81" s="1">
+        <v>1</v>
+      </c>
+      <c r="F81" s="1">
+        <v>1</v>
+      </c>
+      <c r="G81" s="1">
+        <v>3</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>30080</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C82" s="1">
+        <v>5</v>
+      </c>
+      <c r="D82" s="1">
+        <v>3</v>
+      </c>
+      <c r="E82" s="1">
+        <v>1</v>
+      </c>
+      <c r="F82" s="1">
+        <v>1</v>
+      </c>
+      <c r="G82" s="1">
+        <v>2</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>30081</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C83" s="1">
+        <v>5</v>
+      </c>
+      <c r="D83" s="1">
+        <v>3</v>
+      </c>
+      <c r="E83" s="1">
+        <v>1</v>
+      </c>
+      <c r="F83" s="1">
+        <v>1</v>
+      </c>
+      <c r="G83" s="1">
+        <v>3</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>30082</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C84" s="1">
+        <v>5</v>
+      </c>
+      <c r="D84" s="1">
+        <v>3</v>
+      </c>
+      <c r="E84" s="1">
+        <v>1</v>
+      </c>
+      <c r="F84" s="1">
+        <v>1</v>
+      </c>
+      <c r="G84" s="1">
+        <v>2</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>30083</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1</v>
+      </c>
+      <c r="D85" s="1">
+        <v>2</v>
+      </c>
+      <c r="E85" s="1">
+        <v>1</v>
+      </c>
+      <c r="F85" s="1">
+        <v>1</v>
+      </c>
+      <c r="G85" s="1">
+        <v>1</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>30084</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>30085</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>30086</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>30087</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>30088</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>30089</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>30090</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>30091</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>30092</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>30093</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>30094</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>30095</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>30096</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>30097</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>30098</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>30099</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>30100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>30101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>30102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>30103</v>
       </c>
     </row>
   </sheetData>

--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -183,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="117">
   <si>
     <t>string</t>
   </si>
@@ -618,6 +618,30 @@
   </si>
   <si>
     <t>黑山掌法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天剑诀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五毒之体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚀心指</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃木气斩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛤蟆冲击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沾衣十八跌</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -970,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2158,7 +2182,7 @@
         <v>67</v>
       </c>
       <c r="C44" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" s="1">
         <v>3</v>
@@ -3246,30 +3270,156 @@
       <c r="A86" s="1">
         <v>30084</v>
       </c>
+      <c r="B86" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C86" s="1">
+        <v>2</v>
+      </c>
+      <c r="D86" s="1">
+        <v>2</v>
+      </c>
+      <c r="E86" s="1">
+        <v>1</v>
+      </c>
+      <c r="F86" s="1">
+        <v>1</v>
+      </c>
+      <c r="G86" s="1">
+        <v>3</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="87" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>30085</v>
       </c>
+      <c r="B87" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C87" s="1">
+        <v>3</v>
+      </c>
+      <c r="D87" s="1">
+        <v>3</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1</v>
+      </c>
+      <c r="F87" s="1">
+        <v>1</v>
+      </c>
+      <c r="G87" s="1">
+        <v>2</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="88" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>30086</v>
       </c>
+      <c r="B88" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1</v>
+      </c>
+      <c r="D88" s="1">
+        <v>2</v>
+      </c>
+      <c r="E88" s="1">
+        <v>1</v>
+      </c>
+      <c r="F88" s="1">
+        <v>1</v>
+      </c>
+      <c r="G88" s="1">
+        <v>3</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="89" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>30087</v>
       </c>
+      <c r="B89" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C89" s="1">
+        <v>3</v>
+      </c>
+      <c r="D89" s="1">
+        <v>2</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1</v>
+      </c>
+      <c r="F89" s="1">
+        <v>1</v>
+      </c>
+      <c r="G89" s="1">
+        <v>4</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="90" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>30088</v>
       </c>
+      <c r="B90" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C90" s="1">
+        <v>3</v>
+      </c>
+      <c r="D90" s="1">
+        <v>2</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1</v>
+      </c>
+      <c r="F90" s="1">
+        <v>1</v>
+      </c>
+      <c r="G90" s="1">
+        <v>4</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="91" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>30089</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C91" s="1">
+        <v>1</v>
+      </c>
+      <c r="D91" s="1">
+        <v>2</v>
+      </c>
+      <c r="E91" s="1">
+        <v>1</v>
+      </c>
+      <c r="F91" s="1">
+        <v>1</v>
+      </c>
+      <c r="G91" s="1">
+        <v>1</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15" x14ac:dyDescent="0.25">

--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -994,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="H86" sqref="H86"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -183,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="119">
   <si>
     <t>string</t>
   </si>
@@ -642,6 +642,14 @@
   </si>
   <si>
     <t>沾衣十八跌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>峰回路转</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>柳暗花明</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -994,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="N76" sqref="N76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3426,10 +3434,52 @@
       <c r="A92" s="1">
         <v>30090</v>
       </c>
+      <c r="B92" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1</v>
+      </c>
+      <c r="D92" s="1">
+        <v>3</v>
+      </c>
+      <c r="E92" s="1">
+        <v>1</v>
+      </c>
+      <c r="F92" s="1">
+        <v>1</v>
+      </c>
+      <c r="G92" s="1">
+        <v>2</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="93" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>30091</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1</v>
+      </c>
+      <c r="D93" s="1">
+        <v>3</v>
+      </c>
+      <c r="E93" s="1">
+        <v>1</v>
+      </c>
+      <c r="F93" s="1">
+        <v>1</v>
+      </c>
+      <c r="G93" s="1">
+        <v>2</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="15" x14ac:dyDescent="0.25">

--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -183,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="139">
   <si>
     <t>string</t>
   </si>
@@ -650,6 +650,84 @@
   </si>
   <si>
     <t>柳暗花明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>踏雪寻梅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>逆转心经</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>六龙回日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇涓成流</t>
+  </si>
+  <si>
+    <t>龙象大衍拳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>岚之山</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>八卦·十六手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太极圆转</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武当·绵掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫堂腿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮子搏兔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑虎掏心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点穴手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通臂拳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大自在心法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阴鬼爪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拳出如山</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑走轻灵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕子抄水</t>
+  </si>
+  <si>
+    <t>大悲掌</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1000,10 +1078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J105"/>
+  <dimension ref="A1:J130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="N76" sqref="N76"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="H113" sqref="H113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3486,60 +3564,605 @@
       <c r="A94" s="1">
         <v>30092</v>
       </c>
+      <c r="B94" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C94" s="1">
+        <v>1</v>
+      </c>
+      <c r="D94" s="1">
+        <v>3</v>
+      </c>
+      <c r="E94" s="1">
+        <v>1</v>
+      </c>
+      <c r="F94" s="1">
+        <v>1</v>
+      </c>
+      <c r="G94" s="1">
+        <v>3</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="95" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>30093</v>
       </c>
+      <c r="B95" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C95" s="1">
+        <v>4</v>
+      </c>
+      <c r="D95" s="1">
+        <v>3</v>
+      </c>
+      <c r="E95" s="1">
+        <v>1</v>
+      </c>
+      <c r="F95" s="1">
+        <v>1</v>
+      </c>
+      <c r="G95" s="1">
+        <v>4</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="96" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>30094</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1</v>
+      </c>
+      <c r="D96" s="1">
+        <v>2</v>
+      </c>
+      <c r="E96" s="1">
+        <v>1</v>
+      </c>
+      <c r="F96" s="1">
+        <v>1</v>
+      </c>
+      <c r="G96" s="1">
+        <v>2</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>30095</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C97" s="1">
+        <v>3</v>
+      </c>
+      <c r="D97" s="1">
+        <v>3</v>
+      </c>
+      <c r="E97" s="1">
+        <v>1</v>
+      </c>
+      <c r="F97" s="1">
+        <v>1</v>
+      </c>
+      <c r="G97" s="1">
+        <v>4</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>30096</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C98" s="1">
+        <v>1</v>
+      </c>
+      <c r="D98" s="1">
+        <v>2</v>
+      </c>
+      <c r="E98" s="1">
+        <v>1</v>
+      </c>
+      <c r="F98" s="1">
+        <v>1</v>
+      </c>
+      <c r="G98" s="1">
+        <v>3</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>30097</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C99" s="1">
+        <v>1</v>
+      </c>
+      <c r="D99" s="1">
+        <v>2</v>
+      </c>
+      <c r="E99" s="1">
+        <v>1</v>
+      </c>
+      <c r="F99" s="1">
+        <v>1</v>
+      </c>
+      <c r="G99" s="1">
+        <v>2</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>30098</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1</v>
+      </c>
+      <c r="D100" s="1">
+        <v>3</v>
+      </c>
+      <c r="E100" s="1">
+        <v>1</v>
+      </c>
+      <c r="F100" s="1">
+        <v>1</v>
+      </c>
+      <c r="G100" s="1">
+        <v>3</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>30099</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B101" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C101" s="1">
+        <v>1</v>
+      </c>
+      <c r="D101" s="1">
+        <v>3</v>
+      </c>
+      <c r="E101" s="1">
+        <v>1</v>
+      </c>
+      <c r="F101" s="1">
+        <v>1</v>
+      </c>
+      <c r="G101" s="1">
+        <v>3</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>30100</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B102" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1</v>
+      </c>
+      <c r="D102" s="1">
+        <v>2</v>
+      </c>
+      <c r="E102" s="1">
+        <v>1</v>
+      </c>
+      <c r="F102" s="1">
+        <v>1</v>
+      </c>
+      <c r="G102" s="1">
+        <v>2</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>30101</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B103" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C103" s="1">
+        <v>1</v>
+      </c>
+      <c r="D103" s="1">
+        <v>2</v>
+      </c>
+      <c r="E103" s="1">
+        <v>1</v>
+      </c>
+      <c r="F103" s="1">
+        <v>1</v>
+      </c>
+      <c r="G103" s="1">
+        <v>1</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>30102</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B104" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C104" s="1">
+        <v>1</v>
+      </c>
+      <c r="D104" s="1">
+        <v>2</v>
+      </c>
+      <c r="E104" s="1">
+        <v>1</v>
+      </c>
+      <c r="F104" s="1">
+        <v>1</v>
+      </c>
+      <c r="G104" s="1">
+        <v>2</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>30103</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C105" s="1">
+        <v>1</v>
+      </c>
+      <c r="D105" s="1">
+        <v>2</v>
+      </c>
+      <c r="E105" s="1">
+        <v>1</v>
+      </c>
+      <c r="F105" s="1">
+        <v>1</v>
+      </c>
+      <c r="G105" s="1">
+        <v>1</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>30104</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C106" s="1">
+        <v>1</v>
+      </c>
+      <c r="D106" s="1">
+        <v>2</v>
+      </c>
+      <c r="E106" s="1">
+        <v>1</v>
+      </c>
+      <c r="F106" s="1">
+        <v>1</v>
+      </c>
+      <c r="G106" s="1">
+        <v>2</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>30105</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C107" s="1">
+        <v>1</v>
+      </c>
+      <c r="D107" s="1">
+        <v>2</v>
+      </c>
+      <c r="E107" s="1">
+        <v>1</v>
+      </c>
+      <c r="F107" s="1">
+        <v>1</v>
+      </c>
+      <c r="G107" s="1">
+        <v>2</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>30106</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C108" s="1">
+        <v>5</v>
+      </c>
+      <c r="D108" s="1">
+        <v>3</v>
+      </c>
+      <c r="E108" s="1">
+        <v>1</v>
+      </c>
+      <c r="F108" s="1">
+        <v>1</v>
+      </c>
+      <c r="G108" s="1">
+        <v>3</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>30107</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C109" s="1">
+        <v>1</v>
+      </c>
+      <c r="D109" s="1">
+        <v>2</v>
+      </c>
+      <c r="E109" s="1">
+        <v>1</v>
+      </c>
+      <c r="F109" s="1">
+        <v>1</v>
+      </c>
+      <c r="G109" s="1">
+        <v>4</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>30108</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C110" s="1">
+        <v>1</v>
+      </c>
+      <c r="D110" s="1">
+        <v>3</v>
+      </c>
+      <c r="E110" s="1">
+        <v>1</v>
+      </c>
+      <c r="F110" s="1">
+        <v>1</v>
+      </c>
+      <c r="G110" s="1">
+        <v>1</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>30109</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C111" s="1">
+        <v>2</v>
+      </c>
+      <c r="D111" s="1">
+        <v>3</v>
+      </c>
+      <c r="E111" s="1">
+        <v>1</v>
+      </c>
+      <c r="F111" s="1">
+        <v>1</v>
+      </c>
+      <c r="G111" s="1">
+        <v>1</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>30110</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C112" s="1">
+        <v>3</v>
+      </c>
+      <c r="D112" s="1">
+        <v>3</v>
+      </c>
+      <c r="E112" s="1">
+        <v>1</v>
+      </c>
+      <c r="F112" s="1">
+        <v>1</v>
+      </c>
+      <c r="G112" s="1">
+        <v>2</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>30111</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C113" s="1">
+        <v>1</v>
+      </c>
+      <c r="D113" s="1">
+        <v>2</v>
+      </c>
+      <c r="E113" s="1">
+        <v>1</v>
+      </c>
+      <c r="F113" s="1">
+        <v>1</v>
+      </c>
+      <c r="G113" s="1">
+        <v>3</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>30112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>30113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>30114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>30115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>30116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>30117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>30118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>30119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>30120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>30121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>30122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>30123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>30124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>30125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>30126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>30127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>30128</v>
       </c>
     </row>
   </sheetData>

--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1A2BDD-F312-40FC-993C-079107C64B7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,13 +25,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Murphy Ma</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -62,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -92,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -119,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -161,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="1" shapeId="0">
+    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -183,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="150">
   <si>
     <t>string</t>
   </si>
@@ -728,13 +729,57 @@
   </si>
   <si>
     <t>大悲掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒冰真气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮子吼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>踏燕惊龙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登萍渡水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>六气之变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移星换斗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉出昆罡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开山裂石掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风起青萍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>截脉九式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北斗神功</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1077,22 +1122,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="H113" sqref="H113"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124:H124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
     <col min="8" max="9" width="31" customWidth="1"/>
-    <col min="10" max="10" width="16.25" customWidth="1"/>
+    <col min="10" max="10" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1122,7 +1167,7 @@
       </c>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1152,7 +1197,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>30001</v>
       </c>
@@ -1180,7 +1225,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>30002</v>
       </c>
@@ -1208,7 +1253,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>30003</v>
       </c>
@@ -1236,7 +1281,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>30004</v>
       </c>
@@ -1263,7 +1308,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>30005</v>
       </c>
@@ -1290,7 +1335,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>30006</v>
       </c>
@@ -1317,7 +1362,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>30007</v>
       </c>
@@ -1344,7 +1389,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>30008</v>
       </c>
@@ -1371,7 +1416,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>30009</v>
       </c>
@@ -1398,7 +1443,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>30010</v>
       </c>
@@ -1425,7 +1470,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>30011</v>
       </c>
@@ -1452,7 +1497,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>30012</v>
       </c>
@@ -1479,7 +1524,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>30013</v>
       </c>
@@ -1505,7 +1550,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>30014</v>
       </c>
@@ -1532,7 +1577,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>30015</v>
       </c>
@@ -1559,7 +1604,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>30016</v>
       </c>
@@ -1586,7 +1631,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>30017</v>
       </c>
@@ -1613,7 +1658,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>30018</v>
       </c>
@@ -1640,7 +1685,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>30019</v>
       </c>
@@ -1667,7 +1712,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>30020</v>
       </c>
@@ -1694,7 +1739,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>30021</v>
       </c>
@@ -1721,7 +1766,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>30022</v>
       </c>
@@ -1748,7 +1793,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>30023</v>
       </c>
@@ -1775,7 +1820,7 @@
       </c>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>30024</v>
       </c>
@@ -1802,7 +1847,7 @@
       </c>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>30025</v>
       </c>
@@ -1829,7 +1874,7 @@
       </c>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>30026</v>
       </c>
@@ -1856,7 +1901,7 @@
       </c>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>30027</v>
       </c>
@@ -1883,7 +1928,7 @@
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>30028</v>
       </c>
@@ -1910,7 +1955,7 @@
       </c>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30029</v>
       </c>
@@ -1937,7 +1982,7 @@
       </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30030</v>
       </c>
@@ -1964,7 +2009,7 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30031</v>
       </c>
@@ -1991,7 +2036,7 @@
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>30032</v>
       </c>
@@ -2018,7 +2063,7 @@
       </c>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>30033</v>
       </c>
@@ -2045,7 +2090,7 @@
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>30034</v>
       </c>
@@ -2072,7 +2117,7 @@
       </c>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>30035</v>
       </c>
@@ -2099,7 +2144,7 @@
       </c>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>30036</v>
       </c>
@@ -2126,7 +2171,7 @@
       </c>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>30037</v>
       </c>
@@ -2153,7 +2198,7 @@
       </c>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>30038</v>
       </c>
@@ -2180,7 +2225,7 @@
       </c>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>30039</v>
       </c>
@@ -2207,7 +2252,7 @@
       </c>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>30040</v>
       </c>
@@ -2234,7 +2279,7 @@
       </c>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>30041</v>
       </c>
@@ -2260,7 +2305,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>30042</v>
       </c>
@@ -2286,7 +2331,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>30043</v>
       </c>
@@ -2312,7 +2357,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>30044</v>
       </c>
@@ -2338,7 +2383,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>30045</v>
       </c>
@@ -2364,7 +2409,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>30046</v>
       </c>
@@ -2390,7 +2435,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>30047</v>
       </c>
@@ -2416,7 +2461,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>30048</v>
       </c>
@@ -2442,7 +2487,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>30049</v>
       </c>
@@ -2468,7 +2513,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>30050</v>
       </c>
@@ -2494,7 +2539,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>30051</v>
       </c>
@@ -2520,7 +2565,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>30052</v>
       </c>
@@ -2546,7 +2591,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>30053</v>
       </c>
@@ -2572,7 +2617,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>30054</v>
       </c>
@@ -2598,7 +2643,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>30055</v>
       </c>
@@ -2624,7 +2669,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>30056</v>
       </c>
@@ -2650,7 +2695,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>30057</v>
       </c>
@@ -2676,7 +2721,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>30058</v>
       </c>
@@ -2702,7 +2747,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>30059</v>
       </c>
@@ -2728,7 +2773,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>30060</v>
       </c>
@@ -2754,7 +2799,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>30061</v>
       </c>
@@ -2780,7 +2825,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>30062</v>
       </c>
@@ -2806,7 +2851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>30063</v>
       </c>
@@ -2832,7 +2877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>30064</v>
       </c>
@@ -2858,7 +2903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>30065</v>
       </c>
@@ -2884,7 +2929,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>30066</v>
       </c>
@@ -2910,7 +2955,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>30067</v>
       </c>
@@ -2936,7 +2981,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>30068</v>
       </c>
@@ -2962,7 +3007,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>30069</v>
       </c>
@@ -2988,7 +3033,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>30070</v>
       </c>
@@ -3014,7 +3059,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>30071</v>
       </c>
@@ -3040,7 +3085,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>30072</v>
       </c>
@@ -3066,7 +3111,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>30073</v>
       </c>
@@ -3092,7 +3137,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>30074</v>
       </c>
@@ -3118,7 +3163,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>30075</v>
       </c>
@@ -3144,7 +3189,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>30076</v>
       </c>
@@ -3170,7 +3215,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>30077</v>
       </c>
@@ -3196,7 +3241,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>30078</v>
       </c>
@@ -3222,7 +3267,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>30079</v>
       </c>
@@ -3248,7 +3293,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>30080</v>
       </c>
@@ -3274,7 +3319,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>30081</v>
       </c>
@@ -3300,7 +3345,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>30082</v>
       </c>
@@ -3326,7 +3371,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>30083</v>
       </c>
@@ -3352,7 +3397,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>30084</v>
       </c>
@@ -3378,7 +3423,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>30085</v>
       </c>
@@ -3404,7 +3449,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>30086</v>
       </c>
@@ -3430,7 +3475,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>30087</v>
       </c>
@@ -3456,7 +3501,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>30088</v>
       </c>
@@ -3482,7 +3527,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>30089</v>
       </c>
@@ -3508,7 +3553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>30090</v>
       </c>
@@ -3534,7 +3579,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>30091</v>
       </c>
@@ -3560,7 +3605,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>30092</v>
       </c>
@@ -3586,7 +3631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>30093</v>
       </c>
@@ -3612,7 +3657,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>30094</v>
       </c>
@@ -3638,7 +3683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>30095</v>
       </c>
@@ -3664,7 +3709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>30096</v>
       </c>
@@ -3690,7 +3735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>30097</v>
       </c>
@@ -3716,7 +3761,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>30098</v>
       </c>
@@ -3742,7 +3787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>30099</v>
       </c>
@@ -3768,7 +3813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>30100</v>
       </c>
@@ -3794,7 +3839,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>30101</v>
       </c>
@@ -3820,7 +3865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>30102</v>
       </c>
@@ -3846,7 +3891,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>30103</v>
       </c>
@@ -3872,7 +3917,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>30104</v>
       </c>
@@ -3898,7 +3943,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>30105</v>
       </c>
@@ -3924,7 +3969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>30106</v>
       </c>
@@ -3950,7 +3995,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>30107</v>
       </c>
@@ -3976,7 +4021,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>30108</v>
       </c>
@@ -4002,7 +4047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>30109</v>
       </c>
@@ -4028,7 +4073,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>30110</v>
       </c>
@@ -4054,7 +4099,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>30111</v>
       </c>
@@ -4080,87 +4125,318 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>30112</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B114" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C114" s="1">
+        <v>3</v>
+      </c>
+      <c r="D114" s="1">
+        <v>2</v>
+      </c>
+      <c r="E114" s="1">
+        <v>1</v>
+      </c>
+      <c r="F114" s="1">
+        <v>1</v>
+      </c>
+      <c r="G114" s="1">
+        <v>2</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>30113</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B115" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C115" s="1">
+        <v>3</v>
+      </c>
+      <c r="D115" s="1">
+        <v>2</v>
+      </c>
+      <c r="E115" s="1">
+        <v>1</v>
+      </c>
+      <c r="F115" s="1">
+        <v>1</v>
+      </c>
+      <c r="G115" s="1">
+        <v>3</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>30114</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B116" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C116" s="1">
+        <v>3</v>
+      </c>
+      <c r="D116" s="1">
+        <v>3</v>
+      </c>
+      <c r="E116" s="1">
+        <v>1</v>
+      </c>
+      <c r="F116" s="1">
+        <v>1</v>
+      </c>
+      <c r="G116" s="1">
+        <v>2</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>30115</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B117" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C117" s="1">
+        <v>3</v>
+      </c>
+      <c r="D117" s="1">
+        <v>3</v>
+      </c>
+      <c r="E117" s="1">
+        <v>1</v>
+      </c>
+      <c r="F117" s="1">
+        <v>1</v>
+      </c>
+      <c r="G117" s="1">
+        <v>3</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>30116</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B118" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C118" s="1">
+        <v>3</v>
+      </c>
+      <c r="D118" s="1">
+        <v>2</v>
+      </c>
+      <c r="E118" s="1">
+        <v>1</v>
+      </c>
+      <c r="F118" s="1">
+        <v>1</v>
+      </c>
+      <c r="G118" s="1">
+        <v>4</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>30117</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B119" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C119" s="1">
+        <v>5</v>
+      </c>
+      <c r="D119" s="1">
+        <v>3</v>
+      </c>
+      <c r="E119" s="1">
+        <v>1</v>
+      </c>
+      <c r="F119" s="1">
+        <v>1</v>
+      </c>
+      <c r="G119" s="1">
+        <v>4</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>30118</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B120" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C120" s="1">
+        <v>1</v>
+      </c>
+      <c r="D120" s="1">
+        <v>3</v>
+      </c>
+      <c r="E120" s="1">
+        <v>1</v>
+      </c>
+      <c r="F120" s="1">
+        <v>1</v>
+      </c>
+      <c r="G120" s="1">
+        <v>2</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>30119</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B121" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C121" s="1">
+        <v>1</v>
+      </c>
+      <c r="D121" s="1">
+        <v>2</v>
+      </c>
+      <c r="E121" s="1">
+        <v>1</v>
+      </c>
+      <c r="F121" s="1">
+        <v>1</v>
+      </c>
+      <c r="G121" s="1">
+        <v>2</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>30120</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B122" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C122" s="1">
+        <v>3</v>
+      </c>
+      <c r="D122" s="1">
+        <v>3</v>
+      </c>
+      <c r="E122" s="1">
+        <v>1</v>
+      </c>
+      <c r="F122" s="1">
+        <v>1</v>
+      </c>
+      <c r="G122" s="1">
+        <v>3</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>30121</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B123" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C123" s="1">
+        <v>1</v>
+      </c>
+      <c r="D123" s="1">
+        <v>2</v>
+      </c>
+      <c r="E123" s="1">
+        <v>1</v>
+      </c>
+      <c r="F123" s="1">
+        <v>1</v>
+      </c>
+      <c r="G123" s="1">
+        <v>3</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>30122</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B124" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C124" s="1">
+        <v>3</v>
+      </c>
+      <c r="D124" s="1">
+        <v>3</v>
+      </c>
+      <c r="E124" s="1">
+        <v>1</v>
+      </c>
+      <c r="F124" s="1">
+        <v>1</v>
+      </c>
+      <c r="G124" s="1">
+        <v>2</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>30123</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>30124</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>30125</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>30126</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>30127</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>30128</v>
       </c>

--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1A2BDD-F312-40FC-993C-079107C64B7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89831094-D79E-4672-BD61-0C6A5E9EF814}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -184,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="153">
   <si>
     <t>string</t>
   </si>
@@ -773,6 +773,18 @@
   </si>
   <si>
     <t>北斗神功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>千手如来掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易经神功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰蝉神掌</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1126,7 +1138,7 @@
   <dimension ref="A1:J130"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124:H124"/>
+      <selection activeCell="H127" sqref="H127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4415,15 +4427,78 @@
       <c r="A125" s="1">
         <v>30123</v>
       </c>
+      <c r="B125" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C125" s="1">
+        <v>1</v>
+      </c>
+      <c r="D125" s="1">
+        <v>2</v>
+      </c>
+      <c r="E125" s="1">
+        <v>1</v>
+      </c>
+      <c r="F125" s="1">
+        <v>1</v>
+      </c>
+      <c r="G125" s="1">
+        <v>2</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>30124</v>
       </c>
+      <c r="B126" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C126" s="1">
+        <v>3</v>
+      </c>
+      <c r="D126" s="1">
+        <v>2</v>
+      </c>
+      <c r="E126" s="1">
+        <v>1</v>
+      </c>
+      <c r="F126" s="1">
+        <v>1</v>
+      </c>
+      <c r="G126" s="1">
+        <v>4</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>30125</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C127" s="1">
+        <v>1</v>
+      </c>
+      <c r="D127" s="1">
+        <v>2</v>
+      </c>
+      <c r="E127" s="1">
+        <v>1</v>
+      </c>
+      <c r="F127" s="1">
+        <v>1</v>
+      </c>
+      <c r="G127" s="1">
+        <v>3</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">

--- a/excel/card.xlsx
+++ b/excel/card.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89831094-D79E-4672-BD61-0C6A5E9EF814}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C098FBC-60DA-4180-B979-82434DD19D79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="H127" sqref="H127"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
